--- a/PPT/Clases.xlsx
+++ b/PPT/Clases.xlsx
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:F247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PPT/Clases.xlsx
+++ b/PPT/Clases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="272">
   <si>
     <t>System</t>
   </si>
@@ -828,6 +828,18 @@
   </si>
   <si>
     <t>Pop()</t>
+  </si>
+  <si>
+    <t>(name)</t>
+  </si>
+  <si>
+    <t>nombre del objeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto que va a desplegar </t>
+  </si>
+  <si>
+    <t>Tipo.TryParse(str, out destino); return true/false</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F247"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,307 +1862,311 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="4" t="s">
-        <v>16</v>
+      <c r="B85" s="4"/>
+      <c r="D85" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="4"/>
-      <c r="C87" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" t="s">
-        <v>90</v>
+      <c r="B87" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="2" t="s">
-        <v>34</v>
+      <c r="B90" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="4" t="s">
-        <v>35</v>
+      <c r="B91" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="B95" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B97" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="4"/>
-      <c r="C97" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="4" t="s">
-        <v>26</v>
+      <c r="C101" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
-      <c r="C102" t="s">
-        <v>69</v>
+      <c r="C102" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
+      <c r="C107" t="s">
+        <v>235</v>
+      </c>
+      <c r="D107" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14" t="s">
+      <c r="C110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C111" s="14" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="4"/>
-      <c r="C111" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" t="s">
-        <v>97</v>
-      </c>
-      <c r="D112" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" t="s">
-        <v>99</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="D113" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="12"/>
+      <c r="C117" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
-      <c r="C118" t="s">
-        <v>107</v>
-      </c>
-      <c r="D118" t="s">
-        <v>108</v>
-      </c>
+      <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
-      <c r="C119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D119" t="s">
-        <v>110</v>
-      </c>
+      <c r="C119" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D120" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D121" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
+      <c r="C122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D122" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
+      <c r="C123" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
@@ -2159,487 +2175,485 @@
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" t="s">
-        <v>116</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
-      <c r="C127" t="s">
-        <v>117</v>
-      </c>
-      <c r="D127" t="s">
-        <v>124</v>
+      <c r="C127" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" t="s">
-        <v>118</v>
-      </c>
-      <c r="D128" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D129" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D130" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D131" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D132" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>21</v>
+      <c r="C133" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="4"/>
+      <c r="C134" t="s">
+        <v>122</v>
+      </c>
+      <c r="D134" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
-      <c r="C135" t="s">
-        <v>131</v>
-      </c>
-      <c r="D135" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="4"/>
-      <c r="C136" t="s">
-        <v>133</v>
-      </c>
-      <c r="D136" t="s">
-        <v>134</v>
+    </row>
+    <row r="136" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D138" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D139" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D141" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D142" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D143" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="4" t="s">
-        <v>153</v>
+      <c r="C146" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-      <c r="B148" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C148" t="s">
-        <v>183</v>
-      </c>
+      <c r="B148" s="4"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-      <c r="B150" s="4" t="s">
-        <v>157</v>
+      <c r="B150" s="4"/>
+      <c r="C150" t="s">
+        <v>268</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-      <c r="B151" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="4"/>
+      <c r="D152" s="12"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="D153" s="12"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-      <c r="B154" s="4"/>
+      <c r="B154" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="C154" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
-      <c r="B155" s="4"/>
-      <c r="C155" t="s">
-        <v>199</v>
-      </c>
-      <c r="D155" t="s">
-        <v>198</v>
+      <c r="B155" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-      <c r="B156" s="4"/>
-      <c r="C156" t="s">
-        <v>200</v>
-      </c>
-      <c r="D156" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
-      <c r="B157" s="9"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="4" t="s">
-        <v>159</v>
+      <c r="B156" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
-      <c r="B159" s="4" t="s">
-        <v>160</v>
+      <c r="B159" s="4"/>
+      <c r="C159" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-      <c r="B160" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-      <c r="B161" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="B161" s="4"/>
       <c r="C161" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="D161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-      <c r="B162" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="B162" s="4"/>
       <c r="C162" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="D162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="9"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
-      <c r="B165" s="4"/>
-      <c r="C165" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-      <c r="B166" s="4"/>
-      <c r="C166" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C168" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="C170" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
-      <c r="B171" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="B171" s="4"/>
       <c r="C171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-      <c r="B172" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="4"/>
+      <c r="C172" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="C173" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="B174" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C174" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-      <c r="B175" s="4"/>
-      <c r="C175" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
-      <c r="B176" s="4"/>
-      <c r="C176" t="s">
-        <v>193</v>
+      <c r="B176" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
-      <c r="B177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="C177" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="B178" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
-      <c r="B179" s="4"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-      <c r="B180" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="B180" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
+      <c r="C181" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
-      <c r="B182" s="4" t="s">
-        <v>174</v>
+      <c r="B182" s="4"/>
+      <c r="C182" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
-      <c r="B183" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C184" t="s">
-        <v>177</v>
+      <c r="B183" s="4"/>
+      <c r="C183" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
-      <c r="B185" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C185" t="s">
-        <v>179</v>
-      </c>
+      <c r="B185" s="4"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
-      <c r="B186" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="B186" s="4"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
@@ -2647,141 +2661,153 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
-      <c r="B189" s="2" t="s">
-        <v>34</v>
+      <c r="B189" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="C190" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="C191" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
-      <c r="B192" s="4"/>
-    </row>
-    <row r="193" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+      <c r="B192" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+      <c r="B195" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+      <c r="B196" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+      <c r="B197" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+      <c r="B198" s="4"/>
+    </row>
+    <row r="199" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
-      <c r="B194" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C194" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="13"/>
-      <c r="B195" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
-      <c r="B196" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="13"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="4"/>
     </row>
     <row r="200" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="13"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="201" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="202" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="13"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+      <c r="B205" s="4"/>
+    </row>
+    <row r="206" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="13"/>
+      <c r="B206" s="4"/>
+    </row>
+    <row r="207" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+      <c r="B207" s="4"/>
+    </row>
+    <row r="208" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
+      <c r="B208" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="C208" s="15" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="4"/>
-      <c r="C203" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-      <c r="B204" s="4"/>
-      <c r="C204" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="4"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-      <c r="B207" s="4"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-      <c r="B208" s="4"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
-      <c r="B209" s="2" t="s">
-        <v>34</v>
+      <c r="B209" s="4"/>
+      <c r="C209" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="4"/>
+      <c r="C210" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
@@ -2789,179 +2815,183 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
-      <c r="B212" s="4"/>
-    </row>
-    <row r="213" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B212" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+      <c r="B213" s="4"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
-      <c r="B214" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C214" t="s">
-        <v>249</v>
-      </c>
+      <c r="B214" s="4"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
-      <c r="B215" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C215" t="s">
-        <v>251</v>
+      <c r="B215" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="4"/>
-      <c r="C216" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="4"/>
-      <c r="C217" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="4"/>
-      <c r="C218" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="4"/>
+    </row>
+    <row r="219" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C220" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C221" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
-      <c r="B222" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="B222" s="4"/>
       <c r="C222" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="4"/>
+      <c r="C223" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
-      <c r="B224" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="4"/>
+      <c r="C224" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
-      <c r="B226" s="4"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C226" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
-      <c r="B227" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C227" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
-      <c r="B228" s="4"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C228" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+      <c r="B230" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+      <c r="B231" s="4"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="4"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+      <c r="B233" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+      <c r="B234" s="4"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="4"/>
+    </row>
+    <row r="236" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B230" s="16" t="s">
+      <c r="B236" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-      <c r="B231" s="4" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+      <c r="B237" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="4" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+      <c r="B238" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="4" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="3"/>
+      <c r="B239" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="4" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+      <c r="B240" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="4"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="4"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="4"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="4"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="4"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
-      <c r="B241" s="4"/>
+      <c r="B241" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
@@ -2986,6 +3016,30 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="4"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3"/>
+      <c r="B248" s="4"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3"/>
+      <c r="B249" s="4"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+      <c r="B250" s="4"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+      <c r="B251" s="4"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+      <c r="B252" s="4"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+      <c r="B253" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PPT/Clases.xlsx
+++ b/PPT/Clases.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="296">
   <si>
     <t>System</t>
   </si>
@@ -840,12 +840,84 @@
   </si>
   <si>
     <t>Tipo.TryParse(str, out destino); return true/false</t>
+  </si>
+  <si>
+    <t>TextBox</t>
+  </si>
+  <si>
+    <t>Prop:</t>
+  </si>
+  <si>
+    <t>Eventos:</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Cuando se quiere seleccionar otro textBox</t>
+  </si>
+  <si>
+    <t>Focus()</t>
+  </si>
+  <si>
+    <t>SelectAll()</t>
+  </si>
+  <si>
+    <t>Selects all text in the text box.</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>when the control is entered</t>
+  </si>
+  <si>
+    <t>GotFocus</t>
+  </si>
+  <si>
+    <t>when the control receives focus</t>
+  </si>
+  <si>
+    <t>KeyDown</t>
+  </si>
+  <si>
+    <t>when a key is pressed while the control has focus</t>
+  </si>
+  <si>
+    <t>KeyPress</t>
+  </si>
+  <si>
+    <t>when a character. space or backspace key is pressed while the control has focus</t>
+  </si>
+  <si>
+    <t>LostFocus</t>
+  </si>
+  <si>
+    <t>MouseDoubleClick</t>
+  </si>
+  <si>
+    <t>MouseEnter/Leave</t>
+  </si>
+  <si>
+    <t>the mouse pointer enters/leaves the control</t>
+  </si>
+  <si>
+    <t>MouseMove</t>
+  </si>
+  <si>
+    <t>when the mouse pointer is moved over the control</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>ascendente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1216,17 +1288,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,876 +1373,882 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
+      <c r="C16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-      <c r="C17" t="s">
-        <v>27</v>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10" t="s">
+    <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" t="s">
-        <v>54</v>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>26</v>
+      <c r="C46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
-      <c r="C47" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" t="s">
-        <v>42</v>
+      <c r="C47" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
       <c r="D52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
-      <c r="C53" t="s">
-        <v>206</v>
-      </c>
       <c r="D53" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="D60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
-        <v>218</v>
-      </c>
-      <c r="D61" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
+      <c r="C68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="4" t="s">
-        <v>10</v>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6" t="s">
+    <row r="76" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="4" t="s">
-        <v>16</v>
+      <c r="B86" s="4"/>
+      <c r="D86" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="4"/>
-      <c r="C88" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" t="s">
-        <v>90</v>
+      <c r="B88" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="2" t="s">
-        <v>34</v>
+      <c r="B91" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="4" t="s">
-        <v>35</v>
+      <c r="B92" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="B96" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
-      <c r="C98" t="s">
-        <v>61</v>
-      </c>
-      <c r="D98" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D99" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D100" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="4" t="s">
-        <v>26</v>
+      <c r="C102" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
-      <c r="C103" t="s">
-        <v>69</v>
+      <c r="C103" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" t="s">
-        <v>235</v>
-      </c>
-      <c r="D107" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
+      <c r="C108" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="6"/>
-    </row>
-    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14" t="s">
+      <c r="C111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C112" s="14" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="4"/>
-      <c r="C112" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" t="s">
-        <v>99</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="D114" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
-      <c r="D118" s="12"/>
+      <c r="C118" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
-      <c r="C120" t="s">
-        <v>107</v>
-      </c>
-      <c r="D120" t="s">
-        <v>108</v>
-      </c>
+      <c r="C120" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D121" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D122" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
+      <c r="C124" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
@@ -2183,237 +2261,236 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
-      <c r="C128" t="s">
-        <v>116</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>123</v>
+      <c r="C128" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" t="s">
-        <v>124</v>
+        <v>116</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D133" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="6" t="s">
+      <c r="C135" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="4"/>
-      <c r="C137" t="s">
-        <v>131</v>
-      </c>
-      <c r="D137" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D138" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D139" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D141" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D144" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D145" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" t="s">
+        <v>147</v>
+      </c>
+      <c r="D146" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" t="s">
         <v>149</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="10" t="s">
+    <row r="148" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D148" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="4"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-      <c r="B149" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="B149" s="4"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-      <c r="B150" s="4"/>
-      <c r="C150" t="s">
-        <v>268</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>269</v>
+      <c r="B150" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
-      <c r="D152" s="12"/>
+      <c r="C152" t="s">
+        <v>149</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
@@ -2422,505 +2499,534 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-      <c r="B154" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C154" t="s">
-        <v>183</v>
-      </c>
+      <c r="B154" s="4"/>
+      <c r="D154" s="12"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="6" t="s">
+    <row r="159" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C159" s="7" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
-      <c r="C160" t="s">
-        <v>197</v>
+      <c r="C160" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" t="s">
-        <v>199</v>
-      </c>
-      <c r="D161" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" t="s">
+        <v>199</v>
+      </c>
+      <c r="D162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="4"/>
+      <c r="C163" t="s">
         <v>200</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="B163" s="9"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="4" t="s">
-        <v>159</v>
-      </c>
+    <row r="164" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="4" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C167" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="4" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C168" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="4" t="s">
-        <v>163</v>
+        <v>185</v>
+      </c>
+      <c r="C169" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C170" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
-      <c r="B171" s="4"/>
+      <c r="B171" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="C171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-      <c r="B173" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="B173" s="4"/>
       <c r="C173" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C174" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="C175" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C177" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="C178" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+      <c r="B180" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-      <c r="B180" s="6" t="s">
+    <row r="181" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-      <c r="B181" s="4"/>
-      <c r="C181" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="4"/>
+      <c r="C184" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="10" t="s">
+    <row r="185" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-      <c r="B185" s="4"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-      <c r="B188" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C190" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="B190" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
-      <c r="B191" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="B191" s="4"/>
       <c r="C191" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
-      <c r="B192" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="4"/>
+      <c r="C192" t="s">
+        <v>280</v>
+      </c>
+      <c r="D192" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>282</v>
+      </c>
+      <c r="D193" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>284</v>
+      </c>
+      <c r="D194" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
-      <c r="B195" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="4"/>
+      <c r="C195" t="s">
+        <v>286</v>
+      </c>
+      <c r="D195" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
-      <c r="B196" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="4"/>
+      <c r="C196" t="s">
+        <v>275</v>
+      </c>
+      <c r="D196" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
-      <c r="B197" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="4"/>
+      <c r="C197" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
-    </row>
-    <row r="199" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
-      <c r="B202" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="13"/>
+      <c r="C198" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+      <c r="B199" s="4"/>
+      <c r="C199" t="s">
+        <v>290</v>
+      </c>
+      <c r="D199" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+      <c r="B200" s="4"/>
+      <c r="C200" t="s">
+        <v>292</v>
+      </c>
+      <c r="D200" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+      <c r="B201" s="4"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+      <c r="B202" s="4"/>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="13"/>
-      <c r="B205" s="4"/>
-    </row>
-    <row r="206" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="13"/>
-      <c r="B206" s="4"/>
-    </row>
-    <row r="207" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
-      <c r="B207" s="4"/>
-    </row>
-    <row r="208" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="13"/>
+      <c r="C203" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="8"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+      <c r="B205" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+      <c r="B206" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C206" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+      <c r="B207" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C207" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
       <c r="B208" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="4"/>
-      <c r="C209" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="4"/>
-      <c r="C210" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
-      <c r="B211" s="4"/>
+      <c r="B211" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
-      <c r="B212" s="2" t="s">
-        <v>9</v>
+      <c r="B212" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
-      <c r="B213" s="4"/>
+      <c r="B213" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="4"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="4"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="4"/>
-    </row>
-    <row r="219" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B219" s="1" t="s">
+    <row r="215" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C220" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C221" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
+    <row r="216" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="13"/>
+      <c r="B216" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C216" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="13"/>
+      <c r="B217" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C217" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+      <c r="B218" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="13"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="13"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="13"/>
+      <c r="B221" s="4"/>
+    </row>
+    <row r="222" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="13"/>
       <c r="B222" s="4"/>
-      <c r="C222" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
+    </row>
+    <row r="223" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="13"/>
       <c r="B223" s="4"/>
-      <c r="C223" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="4"/>
-      <c r="C224" t="s">
-        <v>261</v>
+    </row>
+    <row r="224" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="13"/>
+      <c r="B224" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="4"/>
+      <c r="C225" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
-      <c r="B226" s="4" t="s">
-        <v>252</v>
-      </c>
+      <c r="B226" s="4"/>
       <c r="C226" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
-      <c r="B227" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C227" t="s">
-        <v>254</v>
-      </c>
+      <c r="B227" s="4"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
-      <c r="B228" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C228" t="s">
-        <v>247</v>
+      <c r="B228" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -2929,13 +3035,13 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
-      <c r="B230" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B230" s="4"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
-      <c r="B231" s="4"/>
+      <c r="B231" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
@@ -2943,103 +3049,207 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
-      <c r="B233" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B233" s="4"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="4"/>
-    </row>
-    <row r="236" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B236" s="16" t="s">
+    <row r="235" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+      <c r="B236" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C236" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
+      </c>
+      <c r="C237" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
-      <c r="B238" s="4" t="s">
-        <v>257</v>
+      <c r="B238" s="4"/>
+      <c r="C238" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
-      <c r="B239" s="4" t="s">
-        <v>258</v>
+      <c r="B239" s="4"/>
+      <c r="C239" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
-      <c r="B240" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="4"/>
+      <c r="C240" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
-      <c r="B241" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
-      <c r="B242" s="4"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
-      <c r="B243" s="4"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C243" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
-      <c r="B244" s="4"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
-      <c r="B246" s="4"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
-      <c r="B249" s="4"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
-      <c r="B252" s="4"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
-      <c r="B253" s="4"/>
+      <c r="B253" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
+      <c r="B254" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="3"/>
+      <c r="B255" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="3"/>
+      <c r="B256" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
+      <c r="B257" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+      <c r="B258" s="4"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+      <c r="B259" s="4"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+      <c r="B260" s="4"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+      <c r="B261" s="4"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="3"/>
+      <c r="B262" s="4"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="3"/>
+      <c r="B263" s="4"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="3"/>
+      <c r="B264" s="4"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+      <c r="B265" s="4"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+      <c r="B266" s="4"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+      <c r="B267" s="4"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+      <c r="B268" s="4"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="3"/>
+      <c r="B269" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PPT/Clases.xlsx
+++ b/PPT/Clases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="304">
   <si>
     <t>System</t>
   </si>
@@ -239,9 +239,6 @@
     <t>.AppendLine(“”)</t>
   </si>
   <si>
-    <t>.AppendFormat(“formato”,var”</t>
-  </si>
-  <si>
     <t>.ToString()</t>
   </si>
   <si>
@@ -725,12 +722,6 @@
     <t>Substring(from, to) (de instancia)</t>
   </si>
   <si>
-    <t>Split (insttancia)</t>
-  </si>
-  <si>
-    <t>Separa al string en partes de acuerdo a los delimitadores indicados</t>
-  </si>
-  <si>
     <t>objStrBld [index] = 'char';</t>
   </si>
   <si>
@@ -773,9 +764,6 @@
     <t>Dictionary&lt;TKey,TValue&gt;</t>
   </si>
   <si>
-    <t>Represents a collection of key/value pairs that are organized based on the key.</t>
-  </si>
-  <si>
     <t>List&lt;T&gt;</t>
   </si>
   <si>
@@ -912,6 +900,42 @@
   </si>
   <si>
     <t>ascendente</t>
+  </si>
+  <si>
+    <t>Sort()</t>
+  </si>
+  <si>
+    <t>Add(key,value)</t>
+  </si>
+  <si>
+    <t>Cada elemento va a ser del tipo KeyValuePair&lt;TKey,TValue&gt;</t>
+  </si>
+  <si>
+    <t>KeyValuePair&lt;TKey,TValue&gt;</t>
+  </si>
+  <si>
+    <t>Es el elemento que van a contenedor los Dictionary</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>str.Split('separador') (insttancia)</t>
+  </si>
+  <si>
+    <t>Separa al string en partes de acuerdo a los delimitadores indicados. Devuelve un string[]</t>
+  </si>
+  <si>
+    <t>ContainsKey(valorBuscado)</t>
+  </si>
+  <si>
+    <t>Represents a collection of key/value pairs that are organized based on the key. Están indexados por la key: dicc[key] devuelve el value</t>
+  </si>
+  <si>
+    <t>.AppendFormat(“formato”,var)</t>
   </si>
 </sst>
 </file>
@@ -1288,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1398,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,50 +1563,50 @@
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
         <v>75</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>76</v>
-      </c>
-      <c r="F35" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
         <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
         <v>80</v>
-      </c>
-      <c r="E37" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
         <v>83</v>
-      </c>
-      <c r="E39" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1595,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1670,20 +1694,20 @@
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
         <v>202</v>
-      </c>
-      <c r="D51" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
         <v>204</v>
-      </c>
-      <c r="D52" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,147 +1721,147 @@
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
         <v>206</v>
-      </c>
-      <c r="D54" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
         <v>210</v>
-      </c>
-      <c r="D57" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" t="s">
         <v>212</v>
-      </c>
-      <c r="D58" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
         <v>214</v>
-      </c>
-      <c r="D59" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" t="s">
         <v>216</v>
-      </c>
-      <c r="D60" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" t="s">
         <v>218</v>
-      </c>
-      <c r="D62" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" t="s">
         <v>220</v>
-      </c>
-      <c r="D63" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" t="s">
         <v>223</v>
-      </c>
-      <c r="D66" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" t="s">
         <v>225</v>
-      </c>
-      <c r="D67" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" t="s">
         <v>227</v>
-      </c>
-      <c r="D68" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,35 +1910,35 @@
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,14 +1963,14 @@
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="D86" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,10 +1989,10 @@
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,24 +2115,24 @@
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D108" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,7 +2145,7 @@
     </row>
     <row r="111" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1</v>
@@ -2131,7 +2155,7 @@
     <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>21</v>
@@ -2141,60 +2165,60 @@
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" t="s">
+        <v>96</v>
+      </c>
+      <c r="D114" t="s">
         <v>97</v>
-      </c>
-      <c r="D114" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" t="s">
+        <v>102</v>
+      </c>
+      <c r="D117" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2214,40 +2238,40 @@
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" t="s">
+        <v>106</v>
+      </c>
+      <c r="D121" t="s">
         <v>107</v>
-      </c>
-      <c r="D121" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" t="s">
         <v>109</v>
-      </c>
-      <c r="D122" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" t="s">
+        <v>110</v>
+      </c>
+      <c r="D123" t="s">
         <v>111</v>
-      </c>
-      <c r="D123" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" t="s">
+        <v>112</v>
+      </c>
+      <c r="D124" t="s">
         <v>113</v>
-      </c>
-      <c r="D124" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,77 +2290,77 @@
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D132" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2346,7 +2370,7 @@
     <row r="137" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>21</v>
@@ -2356,110 +2380,110 @@
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" t="s">
+        <v>130</v>
+      </c>
+      <c r="D138" t="s">
         <v>131</v>
-      </c>
-      <c r="D138" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" t="s">
+        <v>132</v>
+      </c>
+      <c r="D139" t="s">
         <v>133</v>
-      </c>
-      <c r="D139" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" t="s">
+        <v>134</v>
+      </c>
+      <c r="D140" t="s">
         <v>135</v>
-      </c>
-      <c r="D140" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" t="s">
+        <v>136</v>
+      </c>
+      <c r="D141" t="s">
         <v>137</v>
-      </c>
-      <c r="D141" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" t="s">
+        <v>138</v>
+      </c>
+      <c r="D142" t="s">
         <v>139</v>
-      </c>
-      <c r="D142" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" t="s">
+        <v>140</v>
+      </c>
+      <c r="D143" t="s">
         <v>141</v>
-      </c>
-      <c r="D143" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" t="s">
+        <v>142</v>
+      </c>
+      <c r="D144" t="s">
         <v>143</v>
-      </c>
-      <c r="D144" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" t="s">
         <v>145</v>
-      </c>
-      <c r="D145" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" t="s">
+        <v>146</v>
+      </c>
+      <c r="D146" t="s">
         <v>147</v>
-      </c>
-      <c r="D146" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" t="s">
         <v>149</v>
-      </c>
-      <c r="D147" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="9"/>
       <c r="C148" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,27 +2493,27 @@
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,37 +2529,37 @@
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -2549,27 +2573,27 @@
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D162" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" t="s">
+        <v>199</v>
+      </c>
+      <c r="D163" t="s">
         <v>200</v>
-      </c>
-      <c r="D163" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2579,154 +2603,154 @@
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" t="s">
         <v>161</v>
-      </c>
-      <c r="C168" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169" t="s">
         <v>185</v>
-      </c>
-      <c r="C169" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C171" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C174" t="s">
         <v>165</v>
-      </c>
-      <c r="C174" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C175" t="s">
         <v>167</v>
-      </c>
-      <c r="C175" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="9"/>
       <c r="C185" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -2744,107 +2768,107 @@
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D192" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D193" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D194" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D195" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D196" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D199" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D200" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -2862,47 +2886,47 @@
       <c r="A203" s="3"/>
       <c r="B203" s="4"/>
       <c r="C203" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="9"/>
       <c r="C204" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C206" t="s">
         <v>176</v>
-      </c>
-      <c r="C206" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C207" t="s">
         <v>178</v>
-      </c>
-      <c r="C207" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -2922,13 +2946,13 @@
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -2937,7 +2961,7 @@
     </row>
     <row r="215" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>1</v>
@@ -2946,42 +2970,42 @@
     <row r="216" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
       <c r="B219" s="4"/>
       <c r="C219" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
       <c r="B220" s="4"/>
       <c r="C220" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="221" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2999,24 +3023,24 @@
     <row r="224" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="13"/>
       <c r="B224" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="4"/>
       <c r="C225" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="4"/>
       <c r="C226" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,7 +3081,7 @@
     </row>
     <row r="235" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>1</v>
@@ -3066,41 +3090,36 @@
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C236" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
-      <c r="B237" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="B237" s="4"/>
       <c r="C237" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="4"/>
       <c r="C238" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="4"/>
       <c r="C239" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="4"/>
-      <c r="C240" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
@@ -3108,44 +3127,44 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
-      <c r="B242" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C242" t="s">
-        <v>245</v>
-      </c>
+      <c r="B242" s="4"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
-      <c r="B244" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="B244" s="4"/>
       <c r="C244" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="4"/>
+      <c r="C245" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
-      <c r="B246" s="2" t="s">
-        <v>9</v>
+      <c r="B246" s="4"/>
+      <c r="C246" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="4"/>
+      <c r="C247" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
@@ -3153,103 +3172,202 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
-      <c r="B249" s="2" t="s">
-        <v>34</v>
+      <c r="B249" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C249" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="4"/>
+      <c r="C250" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="4"/>
-    </row>
-    <row r="252" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B252" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="C251" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+      <c r="B252" s="4"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
+      </c>
+      <c r="C253" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
+      </c>
+      <c r="C254" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
-      <c r="B255" s="4" t="s">
-        <v>258</v>
+      <c r="B255" s="4"/>
+      <c r="C255" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
-      <c r="B256" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="4"/>
+      <c r="C256" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
-      <c r="B257" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="4"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
-      <c r="B258" s="4"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
-      <c r="B259" s="4"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C259" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="4"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="4"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="4"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
-      <c r="B263" s="4"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
-      <c r="B266" s="4"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
-      <c r="B267" s="4"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
-      <c r="B268" s="4"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
-      <c r="B269" s="4"/>
+      <c r="B269" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="3"/>
+      <c r="B270" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="3"/>
+      <c r="B271" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="3"/>
+      <c r="B272" s="4"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="3"/>
+      <c r="B273" s="4"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
+      <c r="B274" s="4"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="3"/>
+      <c r="B275" s="4"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+      <c r="B276" s="4"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
+      <c r="B277" s="4"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+      <c r="B278" s="4"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="3"/>
+      <c r="B279" s="4"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="3"/>
+      <c r="B280" s="4"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="3"/>
+      <c r="B281" s="4"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="3"/>
+      <c r="B282" s="4"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="3"/>
+      <c r="B283" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PPT/Clases.xlsx
+++ b/PPT/Clases.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="367">
   <si>
     <t>System</t>
   </si>
@@ -1113,12 +1113,24 @@
   </si>
   <si>
     <t>con Autosize=false</t>
+  </si>
+  <si>
+    <t>System.Threading</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Sleep(miliseconds)</t>
+  </si>
+  <si>
+    <t>Suspende el subproceso actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1606,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F351"/>
+  <dimension ref="A1:F352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171"/>
+    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A353" sqref="A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4095,71 +4107,85 @@
         <v>248</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="32"/>
       <c r="B337" s="35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="32"/>
       <c r="B338" s="35" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="32"/>
       <c r="B339" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="32"/>
       <c r="B340" s="35"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="32"/>
       <c r="B341" s="35"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="32"/>
       <c r="B342" s="35"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="32"/>
       <c r="B343" s="35"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="32"/>
       <c r="B344" s="35"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="32"/>
       <c r="B345" s="35"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="32"/>
       <c r="B346" s="35"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="32"/>
       <c r="B347" s="35"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="32"/>
       <c r="B348" s="35"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="32"/>
       <c r="B349" s="35"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="32"/>
       <c r="B350" s="35"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="32"/>
       <c r="B351" s="35"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>363</v>
+      </c>
+      <c r="B352" t="s">
+        <v>364</v>
+      </c>
+      <c r="C352" t="s">
+        <v>365</v>
+      </c>
+      <c r="D352" t="s">
+        <v>366</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PPT/Clases.xlsx
+++ b/PPT/Clases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="371">
   <si>
     <t>System</t>
   </si>
@@ -1125,6 +1125,18 @@
   </si>
   <si>
     <t>Suspende el subproceso actual</t>
+  </si>
+  <si>
+    <t>Sort(funcion)</t>
+  </si>
+  <si>
+    <t>funcion(x,y): int -1/0/1</t>
+  </si>
+  <si>
+    <t>ToList()</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt; lista = new List&lt;int&gt;(pila.ToList());</t>
   </si>
 </sst>
 </file>
@@ -1618,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F352"/>
+  <dimension ref="A1:F353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A353" sqref="A353"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,29 +3771,29 @@
         <v>289</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="33"/>
       <c r="B289" s="38"/>
       <c r="C289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="33"/>
       <c r="B290" s="38"/>
       <c r="C290" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="33"/>
       <c r="B291" s="38"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="33"/>
       <c r="B292" s="38"/>
     </row>
-    <row r="293" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="36"/>
       <c r="B293" s="50" t="s">
         <v>241</v>
@@ -3790,39 +3802,42 @@
         <v>242</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="33"/>
       <c r="B294" s="38"/>
       <c r="C294" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="33"/>
       <c r="B295" s="38"/>
       <c r="C295" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="33"/>
       <c r="B296" s="38"/>
       <c r="C296" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="33"/>
       <c r="B297" s="38"/>
       <c r="C297" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="D297" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="33"/>
       <c r="B298" s="38"/>
     </row>
-    <row r="299" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="36"/>
       <c r="B299" s="50" t="s">
         <v>243</v>
@@ -3831,32 +3846,32 @@
         <v>237</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="33"/>
       <c r="B300" s="38"/>
       <c r="C300" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="33"/>
       <c r="B301" s="38"/>
       <c r="C301" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="33"/>
       <c r="B302" s="38"/>
       <c r="C302" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="33"/>
       <c r="B303" s="38"/>
     </row>
-    <row r="304" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="36"/>
       <c r="B304" s="50" t="s">
         <v>246</v>
@@ -3956,234 +3971,244 @@
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="33"/>
       <c r="B315" s="38"/>
-    </row>
-    <row r="316" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="36"/>
-      <c r="B316" s="50" t="s">
+      <c r="C315" t="s">
+        <v>369</v>
+      </c>
+      <c r="D315" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="33"/>
+      <c r="B316" s="38"/>
+    </row>
+    <row r="317" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="36"/>
+      <c r="B317" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="C316" s="50" t="s">
+      <c r="C317" s="50" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="33"/>
-      <c r="B317" s="38"/>
-      <c r="C317" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="33"/>
       <c r="B318" s="38"/>
       <c r="C318" t="s">
-        <v>340</v>
-      </c>
-      <c r="D318" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="33"/>
       <c r="B319" s="38"/>
       <c r="C319" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D319" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="33"/>
       <c r="B320" s="38"/>
       <c r="C320" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D320" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="33"/>
       <c r="B321" s="38"/>
       <c r="C321" t="s">
-        <v>344</v>
+        <v>322</v>
+      </c>
+      <c r="D321" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="33"/>
       <c r="B322" s="38"/>
       <c r="C322" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="33"/>
       <c r="B323" s="38"/>
       <c r="C323" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="33"/>
       <c r="B324" s="38"/>
       <c r="C324" t="s">
-        <v>345</v>
-      </c>
-      <c r="D324" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="33"/>
       <c r="B325" s="38"/>
-    </row>
-    <row r="326" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="36" t="s">
+      <c r="C325" t="s">
+        <v>345</v>
+      </c>
+      <c r="D325" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="33"/>
+      <c r="B326" s="38"/>
+    </row>
+    <row r="327" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="33"/>
-      <c r="B327" s="38" t="s">
+    <row r="328" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="33"/>
+      <c r="B328" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="C327" s="38" t="s">
+      <c r="C328" s="38" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="33"/>
-      <c r="B328" s="38"/>
-      <c r="C328" s="38" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="33"/>
       <c r="B329" s="38"/>
-      <c r="C329" t="s">
-        <v>292</v>
+      <c r="C329" s="38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="33"/>
       <c r="B330" s="38"/>
       <c r="C330" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="33"/>
-      <c r="B331" s="33" t="s">
-        <v>34</v>
+      <c r="B331" s="38"/>
+      <c r="C331" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="33"/>
-      <c r="B332" s="38"/>
+      <c r="B332" s="33" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="33"/>
       <c r="B333" s="38"/>
     </row>
-    <row r="334" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="39" t="s">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="33"/>
+      <c r="B334" s="38"/>
+    </row>
+    <row r="335" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B334" s="40" t="s">
+      <c r="B335" s="40" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="32"/>
-      <c r="B335" s="35" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="32"/>
       <c r="B336" s="35" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="32"/>
       <c r="B337" s="35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="32"/>
       <c r="B338" s="35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="32"/>
       <c r="B339" s="35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="32"/>
+      <c r="B340" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="32"/>
-      <c r="B340" s="35"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="32"/>
       <c r="B341" s="35"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="32"/>
       <c r="B342" s="35"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="32"/>
       <c r="B343" s="35"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="32"/>
       <c r="B344" s="35"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="32"/>
       <c r="B345" s="35"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="32"/>
       <c r="B346" s="35"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="32"/>
       <c r="B347" s="35"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="32"/>
       <c r="B348" s="35"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="32"/>
       <c r="B349" s="35"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="32"/>
       <c r="B350" s="35"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="32"/>
       <c r="B351" s="35"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="32"/>
+      <c r="B352" s="35"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
         <v>363</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B353" t="s">
         <v>364</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C353" t="s">
         <v>365</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D353" t="s">
         <v>366</v>
       </c>
     </row>

--- a/PPT/Clases.xlsx
+++ b/PPT/Clases.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="374">
   <si>
     <t>System</t>
   </si>
@@ -1137,12 +1137,21 @@
   </si>
   <si>
     <t>List&lt;int&gt; lista = new List&lt;int&gt;(pila.ToList());</t>
+  </si>
+  <si>
+    <t>Equals(str1,str2)</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Bool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1630,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F353"/>
+  <dimension ref="A1:F355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G295" sqref="G295"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,637 +2028,643 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
+      <c r="C55" t="s">
+        <v>199</v>
+      </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" t="s">
-        <v>203</v>
-      </c>
       <c r="D57" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D58" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D60" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" t="s">
-        <v>226</v>
+        <v>209</v>
+      </c>
+      <c r="D63" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D70" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" t="s">
-        <v>83</v>
+      <c r="B79" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="4" t="s">
-        <v>13</v>
+      <c r="B85" s="4"/>
+      <c r="C85" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="D88" t="s">
-        <v>262</v>
+      <c r="B88" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="4" t="s">
-        <v>17</v>
+      <c r="B90" s="4"/>
+      <c r="D90" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" t="s">
-        <v>87</v>
+      <c r="B91" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C96" t="s">
-        <v>349</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+      <c r="B99" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="44" t="s">
+    <row r="103" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="B103" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C101" s="45" t="s">
+      <c r="C103" s="45" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="14"/>
-      <c r="C102" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="14"/>
-      <c r="C103" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="14"/>
       <c r="C104" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="14"/>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D105" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="17" t="s">
-        <v>26</v>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="14"/>
       <c r="C107" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="14"/>
-      <c r="C108" t="s">
-        <v>68</v>
+      <c r="C108" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="14"/>
       <c r="C109" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>228</v>
-      </c>
-      <c r="D111" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
+      <c r="C112" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
-    </row>
-    <row r="114" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
+      <c r="C113" t="s">
+        <v>228</v>
+      </c>
+      <c r="D113" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="14"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="14"/>
+    </row>
+    <row r="116" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="46"/>
-    </row>
-    <row r="115" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="23" t="s">
+      <c r="B116" s="46"/>
+    </row>
+    <row r="117" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
-      <c r="B116" s="25" t="s">
+    <row r="118" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="19"/>
+      <c r="B118" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C118" s="25" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="24"/>
-      <c r="C117" t="s">
-        <v>92</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="24"/>
-      <c r="C118" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="20"/>
       <c r="B119" s="24"/>
       <c r="C119" t="s">
-        <v>96</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="20"/>
       <c r="B120" s="24"/>
       <c r="C120" t="s">
-        <v>99</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="D120" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="B121" s="24"/>
       <c r="C121" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
       <c r="B122" s="24"/>
       <c r="C122" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="B123" s="24"/>
       <c r="C123" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>310</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="B124" s="24"/>
       <c r="C124" t="s">
-        <v>312</v>
-      </c>
-      <c r="D124" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="B125" s="24"/>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="B126" s="24"/>
       <c r="C126" t="s">
-        <v>352</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>353</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D126" s="11"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
       <c r="B127" s="24"/>
-      <c r="D127" s="11"/>
+      <c r="C127" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="20"/>
       <c r="B128" s="24"/>
-      <c r="C128" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D128" s="11"/>
+      <c r="C128" t="s">
+        <v>352</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="20"/>
       <c r="B129" s="24"/>
-      <c r="C129" t="s">
-        <v>104</v>
-      </c>
-      <c r="D129" t="s">
-        <v>105</v>
-      </c>
+      <c r="D129" s="11"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="20"/>
       <c r="B130" s="24"/>
-      <c r="C130" t="s">
-        <v>106</v>
-      </c>
-      <c r="D130" t="s">
-        <v>107</v>
-      </c>
+      <c r="C130" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
       <c r="B131" s="24"/>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D131" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="B132" s="24"/>
       <c r="C132" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="B133" s="24"/>
+      <c r="C133" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="B134" s="24"/>
+      <c r="C134" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="20"/>
@@ -2658,331 +2673,331 @@
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="B136" s="24"/>
-      <c r="C136" s="24" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="20"/>
       <c r="B137" s="24"/>
-      <c r="C137" t="s">
-        <v>112</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="20"/>
       <c r="B138" s="24"/>
-      <c r="C138" t="s">
-        <v>113</v>
-      </c>
-      <c r="D138" t="s">
-        <v>301</v>
+      <c r="C138" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="20"/>
       <c r="B139" s="24"/>
       <c r="C139" t="s">
-        <v>114</v>
-      </c>
-      <c r="D139" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="B140" s="24"/>
       <c r="C140" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D140" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="B141" s="24"/>
       <c r="C141" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D141" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="B142" s="24"/>
       <c r="C142" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D142" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="B143" s="24"/>
       <c r="C143" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D143" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="B144" s="24"/>
-    </row>
-    <row r="145" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="18"/>
-      <c r="B145" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C145" s="26" t="s">
-        <v>264</v>
+      <c r="C144" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="20"/>
+      <c r="B145" s="24"/>
+      <c r="C145" t="s">
+        <v>118</v>
+      </c>
+      <c r="D145" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="B146" s="24"/>
-      <c r="C146" t="s">
-        <v>259</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
-      <c r="B147" s="24"/>
-      <c r="C147" t="s">
-        <v>144</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>261</v>
+    </row>
+    <row r="147" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="B147" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="B148" s="24"/>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>259</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>355</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149" s="24"/>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>144</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>357</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
       <c r="B150" s="24"/>
-      <c r="C150" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D150" s="11"/>
+      <c r="C150" t="s">
+        <v>354</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="B151" s="24"/>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="24"/>
+      <c r="C152" s="24" t="s">
+        <v>265</v>
+      </c>
       <c r="D152" s="11"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153" s="24"/>
-      <c r="D153" s="11"/>
+      <c r="C153" t="s">
+        <v>299</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
-      <c r="B154" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C154" t="s">
-        <v>304</v>
-      </c>
-      <c r="D154" t="s">
-        <v>178</v>
-      </c>
+      <c r="B154" s="24"/>
+      <c r="D154" s="11"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
-      <c r="B155" s="24" t="s">
-        <v>150</v>
-      </c>
+      <c r="B155" s="24"/>
+      <c r="D155" s="11"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C156" t="s">
+        <v>304</v>
+      </c>
+      <c r="D156" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="18"/>
-      <c r="B158" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>191</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="20"/>
+      <c r="B158" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
-      <c r="B160" s="24"/>
-      <c r="C160" t="s">
-        <v>192</v>
+      <c r="B159" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="18"/>
+      <c r="B160" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="B161" s="24"/>
-      <c r="C161" t="s">
-        <v>194</v>
-      </c>
-      <c r="D161" t="s">
-        <v>193</v>
+      <c r="C161" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162" s="24"/>
       <c r="C162" t="s">
-        <v>195</v>
-      </c>
-      <c r="D162" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="B163" s="24"/>
-      <c r="C163" s="24" t="s">
-        <v>358</v>
+      <c r="C163" t="s">
+        <v>194</v>
+      </c>
+      <c r="D163" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="24"/>
       <c r="C164" t="s">
-        <v>360</v>
+        <v>195</v>
       </c>
       <c r="D164" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="21"/>
-      <c r="B165" s="27"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="20"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="24" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
-      <c r="B166" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
-      <c r="B167" s="24" t="s">
-        <v>155</v>
-      </c>
+      <c r="B166" s="24"/>
+      <c r="C166" t="s">
+        <v>360</v>
+      </c>
+      <c r="D166" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="21"/>
+      <c r="B167" s="27"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="B168" s="24" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C169" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C170" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="24" t="s">
-        <v>306</v>
+        <v>156</v>
+      </c>
+      <c r="C171" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
-      <c r="B172" s="24"/>
+      <c r="B172" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C172" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="24" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="24"/>
-      <c r="C174" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
-      <c r="B175" s="24"/>
-      <c r="C175" t="s">
-        <v>302</v>
-      </c>
-      <c r="D175" t="s">
-        <v>362</v>
+      <c r="B175" s="24" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176" s="24"/>
+      <c r="C176" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="B177" s="24"/>
+      <c r="C177" t="s">
+        <v>302</v>
+      </c>
+      <c r="D177" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
@@ -2990,288 +3005,288 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
-      <c r="B179" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C179" t="s">
-        <v>182</v>
-      </c>
+      <c r="B179" s="24"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="24"/>
-      <c r="C180" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
-      <c r="B181" s="24"/>
+      <c r="B181" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="C181" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="20"/>
-      <c r="B182" s="24" t="s">
-        <v>160</v>
-      </c>
+      <c r="B182" s="24"/>
       <c r="C182" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="18"/>
-      <c r="B183" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C183" s="26" t="s">
-        <v>21</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="20"/>
+      <c r="B183" s="24"/>
+      <c r="C183" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
-      <c r="B184" s="24"/>
+      <c r="B184" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="C184" t="s">
-        <v>126</v>
-      </c>
-      <c r="D184" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
-      <c r="B185" s="24"/>
-      <c r="C185" t="s">
-        <v>128</v>
-      </c>
-      <c r="D185" t="s">
-        <v>129</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="18"/>
+      <c r="B185" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="24"/>
       <c r="C186" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D186" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="24"/>
       <c r="C187" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D187" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="24"/>
       <c r="C188" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D188" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="B189" s="24"/>
       <c r="C189" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D189" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="B190" s="24"/>
       <c r="C190" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D190" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="B191" s="24"/>
       <c r="C191" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D191" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
       <c r="B192" s="24"/>
       <c r="C192" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D192" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
       <c r="B193" s="24"/>
       <c r="C193" t="s">
+        <v>140</v>
+      </c>
+      <c r="D193" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="20"/>
+      <c r="B194" s="24"/>
+      <c r="C194" t="s">
+        <v>142</v>
+      </c>
+      <c r="D194" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="20"/>
+      <c r="B195" s="24"/>
+      <c r="C195" t="s">
         <v>144</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D195" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="19"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="19"/>
-      <c r="B195" s="25"/>
     </row>
     <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19"/>
       <c r="B196" s="25"/>
-      <c r="C196" s="24" t="s">
-        <v>26</v>
+      <c r="C196" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19"/>
       <c r="B197" s="25"/>
-      <c r="C197" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D197" s="13" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="19"/>
       <c r="B198" s="25"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="20"/>
-      <c r="B199" s="24"/>
-    </row>
-    <row r="200" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="18"/>
-      <c r="B200" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="C198" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="19"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="19"/>
+      <c r="B200" s="25"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
-      <c r="B201" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="20"/>
-      <c r="B202" s="24" t="s">
-        <v>165</v>
+      <c r="B201" s="24"/>
+    </row>
+    <row r="202" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="18"/>
+      <c r="B202" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
-      <c r="B203" s="24"/>
+      <c r="B203" s="24" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="B204" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C204" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="20"/>
       <c r="B205" s="24"/>
-      <c r="C205" t="s">
-        <v>304</v>
-      </c>
-      <c r="D205" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
-      <c r="B206" s="24"/>
+      <c r="B206" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C206" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
-      <c r="B207" s="24" t="s">
-        <v>167</v>
+      <c r="B207" s="24"/>
+      <c r="C207" t="s">
+        <v>304</v>
+      </c>
+      <c r="D207" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="20"/>
-      <c r="B208" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="18"/>
-      <c r="B209" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>186</v>
+      <c r="B208" s="24"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="20"/>
+      <c r="B209" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
-      <c r="B210" s="24"/>
-      <c r="C210" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
-      <c r="B211" s="24"/>
-      <c r="C211" t="s">
-        <v>188</v>
+      <c r="B210" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="18"/>
+      <c r="B211" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
       <c r="B212" s="24"/>
       <c r="C212" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="21"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="20"/>
+      <c r="B213" s="24"/>
+      <c r="C213" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
       <c r="B214" s="24"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
-      <c r="B215" s="24"/>
+      <c r="C214" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="21"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
@@ -3279,372 +3294,372 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
-      <c r="B217" s="24" t="s">
+      <c r="B217" s="24"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="20"/>
+      <c r="B218" s="24"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="20"/>
+      <c r="B219" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="18"/>
-      <c r="B218" s="26" t="s">
+    <row r="220" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="18"/>
+      <c r="B220" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C218" s="26" t="s">
+      <c r="C220" s="26" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="19"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="19"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D220" s="12" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="19"/>
       <c r="B221" s="25"/>
       <c r="C221" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D221" s="12" t="s">
-        <v>315</v>
+        <v>144</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="19"/>
       <c r="B222" s="25"/>
-      <c r="C222" s="13"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
-      <c r="B223" s="24"/>
-      <c r="C223" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
-      <c r="B224" s="24"/>
-      <c r="C224" t="s">
-        <v>271</v>
-      </c>
-      <c r="D224" t="s">
-        <v>272</v>
-      </c>
+      <c r="C222" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="19"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="19"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="13"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="B225" s="24"/>
-      <c r="C225" t="s">
-        <v>273</v>
-      </c>
-      <c r="D225" t="s">
-        <v>274</v>
+      <c r="C225" s="24" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
       <c r="B226" s="24"/>
       <c r="C226" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D226" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
       <c r="B227" s="24"/>
       <c r="C227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D227" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
       <c r="B228" s="24"/>
       <c r="C228" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D228" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="20"/>
       <c r="B229" s="24"/>
       <c r="C229" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+      <c r="D229" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="20"/>
       <c r="B230" s="24"/>
       <c r="C230" t="s">
-        <v>280</v>
+        <v>266</v>
+      </c>
+      <c r="D230" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="20"/>
       <c r="B231" s="24"/>
       <c r="C231" t="s">
-        <v>281</v>
-      </c>
-      <c r="D231" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="20"/>
       <c r="B232" s="24"/>
       <c r="C232" t="s">
-        <v>283</v>
-      </c>
-      <c r="D232" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="20"/>
       <c r="B233" s="24"/>
+      <c r="C233" t="s">
+        <v>281</v>
+      </c>
+      <c r="D233" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="20"/>
       <c r="B234" s="24"/>
-      <c r="C234" s="24" t="s">
-        <v>26</v>
+      <c r="C234" t="s">
+        <v>283</v>
+      </c>
+      <c r="D234" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="B235" s="24"/>
-      <c r="C235" t="s">
-        <v>268</v>
-      </c>
-      <c r="D235" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="21"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>270</v>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="20"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
-      <c r="B237" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
-      <c r="B238" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C238" t="s">
-        <v>172</v>
+      <c r="B237" s="24"/>
+      <c r="C237" t="s">
+        <v>268</v>
+      </c>
+      <c r="D237" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="21"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="B239" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C239" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="B240" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="C240" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="20"/>
-      <c r="B241" s="24"/>
+      <c r="B241" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C241" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
-      <c r="B242" s="24"/>
-    </row>
-    <row r="243" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="B242" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="20"/>
+      <c r="B243" s="24"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
-      <c r="B244" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
-      <c r="B245" s="24" t="s">
-        <v>177</v>
+      <c r="B244" s="24"/>
+    </row>
+    <row r="245" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
-      <c r="B246" s="24"/>
-    </row>
-    <row r="247" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="47" t="s">
+      <c r="B246" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="20"/>
+      <c r="B247" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="20"/>
+      <c r="B248" s="24"/>
+    </row>
+    <row r="249" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B247" s="48"/>
-    </row>
-    <row r="248" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="31" t="s">
+      <c r="B249" s="48"/>
+    </row>
+    <row r="250" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="28"/>
-      <c r="B249" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C249" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="28"/>
-      <c r="B250" s="34"/>
-      <c r="C250" s="12" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="28"/>
-      <c r="B251" s="34"/>
+      <c r="B251" s="34" t="s">
+        <v>233</v>
+      </c>
       <c r="C251" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D251" s="12" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="28"/>
       <c r="B252" s="34"/>
       <c r="C252" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D252" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="28"/>
       <c r="B253" s="34"/>
-      <c r="C253" s="13" t="s">
-        <v>287</v>
+      <c r="C253" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="254" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="28"/>
       <c r="B254" s="34"/>
-      <c r="C254" s="13" t="s">
-        <v>329</v>
+      <c r="C254" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="28"/>
       <c r="B255" s="34"/>
       <c r="C255" s="13" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="28"/>
       <c r="B256" s="34"/>
       <c r="C256" s="13" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="28"/>
       <c r="B257" s="34"/>
       <c r="C257" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="28"/>
       <c r="B258" s="34"/>
       <c r="C258" s="13" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="28"/>
       <c r="B259" s="34"/>
       <c r="C259" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="260" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="28"/>
       <c r="B260" s="34"/>
+      <c r="C260" s="13" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="28"/>
-      <c r="B261" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C261" s="12" t="s">
-        <v>347</v>
+      <c r="B261" s="34"/>
+      <c r="C261" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="28"/>
       <c r="B262" s="34"/>
-      <c r="C262" s="13" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="28"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>348</v>
+      <c r="B263" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="28"/>
       <c r="B264" s="34"/>
       <c r="C264" s="13" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="28"/>
       <c r="B265" s="34"/>
+      <c r="C265" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="28"/>
       <c r="B266" s="34"/>
+      <c r="C266" s="13" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="28"/>
@@ -3652,34 +3667,34 @@
     </row>
     <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="28"/>
-      <c r="B268" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C268" s="12" t="s">
-        <v>237</v>
-      </c>
+      <c r="B268" s="34"/>
     </row>
     <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="28"/>
       <c r="B269" s="34"/>
-      <c r="C269" s="13" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="28"/>
-      <c r="B270" s="34"/>
-      <c r="C270" s="13" t="s">
-        <v>256</v>
+      <c r="B270" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="28"/>
       <c r="B271" s="34"/>
+      <c r="C271" s="13" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="272" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="28"/>
       <c r="B272" s="34"/>
+      <c r="C272" s="13" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="273" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28"/>
@@ -3687,35 +3702,33 @@
     </row>
     <row r="274" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="28"/>
-      <c r="B274" s="34" t="s">
+      <c r="B274" s="34"/>
+    </row>
+    <row r="275" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="28"/>
+      <c r="B275" s="34"/>
+    </row>
+    <row r="276" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="28"/>
+      <c r="B276" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C274" s="12" t="s">
+      <c r="C276" s="12" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="29"/>
-      <c r="B275" s="34"/>
-      <c r="C275" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="29"/>
-      <c r="B276" s="34"/>
-      <c r="C276" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="29"/>
       <c r="B277" s="34"/>
+      <c r="C277" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="29"/>
-      <c r="B278" s="29" t="s">
-        <v>9</v>
+      <c r="B278" s="34"/>
+      <c r="C278" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3724,13 +3737,13 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="29"/>
-      <c r="B280" s="34"/>
+      <c r="B280" s="29" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="29"/>
-      <c r="B281" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="B281" s="34"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="29"/>
@@ -3738,425 +3751,433 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="29"/>
-      <c r="B283" s="34"/>
+      <c r="B283" s="29" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="29"/>
       <c r="B284" s="34"/>
     </row>
-    <row r="285" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="41" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="29"/>
+      <c r="B285" s="34"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="29"/>
+      <c r="B286" s="34"/>
+    </row>
+    <row r="287" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B285" s="42"/>
-    </row>
-    <row r="286" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="37" t="s">
+      <c r="B287" s="42"/>
+    </row>
+    <row r="288" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="36"/>
-      <c r="B287" s="50" t="s">
+    <row r="289" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="36"/>
+      <c r="B289" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C287" s="50" t="s">
+      <c r="C289" s="50" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="33"/>
-      <c r="B288" s="38"/>
-      <c r="C288" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="33"/>
-      <c r="B289" s="38"/>
-      <c r="C289" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="33"/>
       <c r="B290" s="38"/>
       <c r="C290" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="33"/>
       <c r="B291" s="38"/>
+      <c r="C291" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="33"/>
       <c r="B292" s="38"/>
-    </row>
-    <row r="293" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="36"/>
-      <c r="B293" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C293" s="50" t="s">
-        <v>242</v>
-      </c>
+      <c r="C292" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="33"/>
+      <c r="B293" s="38"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="33"/>
       <c r="B294" s="38"/>
-      <c r="C294" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="33"/>
-      <c r="B295" s="38"/>
-      <c r="C295" t="s">
-        <v>254</v>
+    </row>
+    <row r="295" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="36"/>
+      <c r="B295" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C295" s="50" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="33"/>
       <c r="B296" s="38"/>
       <c r="C296" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="D296" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="33"/>
       <c r="B297" s="38"/>
       <c r="C297" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
       <c r="D297" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="33"/>
       <c r="B298" s="38"/>
-    </row>
-    <row r="299" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="36"/>
-      <c r="B299" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C299" s="50" t="s">
-        <v>237</v>
+      <c r="C298" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="33"/>
+      <c r="B299" s="38"/>
+      <c r="C299" t="s">
+        <v>367</v>
+      </c>
+      <c r="D299" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="33"/>
       <c r="B300" s="38"/>
-      <c r="C300" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="33"/>
-      <c r="B301" s="38"/>
-      <c r="C301" t="s">
-        <v>256</v>
+    </row>
+    <row r="301" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="36"/>
+      <c r="B301" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C301" s="50" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="33"/>
       <c r="B302" s="38"/>
       <c r="C302" t="s">
-        <v>331</v>
+        <v>255</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="33"/>
       <c r="B303" s="38"/>
-    </row>
-    <row r="304" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="36"/>
-      <c r="B304" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C304" s="50" t="s">
-        <v>239</v>
+      <c r="C303" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="33"/>
+      <c r="B304" s="38"/>
+      <c r="C304" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="33"/>
       <c r="B305" s="38"/>
-      <c r="C305" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="33"/>
-      <c r="B306" s="38"/>
-      <c r="C306" t="s">
-        <v>258</v>
-      </c>
-      <c r="D306" t="s">
-        <v>318</v>
+    </row>
+    <row r="306" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="36"/>
+      <c r="B306" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C306" s="50" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="33"/>
       <c r="B307" s="38"/>
       <c r="C307" t="s">
-        <v>317</v>
-      </c>
-      <c r="D307" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="33"/>
       <c r="B308" s="38"/>
       <c r="C308" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="D308" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="33"/>
       <c r="B309" s="38"/>
       <c r="C309" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="D309" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="33"/>
       <c r="B310" s="38"/>
       <c r="C310" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D310" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="33"/>
       <c r="B311" s="38"/>
       <c r="C311" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="33"/>
       <c r="B312" s="38"/>
       <c r="C312" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D312" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="33"/>
       <c r="B313" s="38"/>
       <c r="C313" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="33"/>
       <c r="B314" s="38"/>
       <c r="C314" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D314" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="33"/>
       <c r="B315" s="38"/>
       <c r="C315" t="s">
-        <v>369</v>
-      </c>
-      <c r="D315" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="33"/>
       <c r="B316" s="38"/>
-    </row>
-    <row r="317" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="36"/>
-      <c r="B317" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C317" s="50" t="s">
-        <v>245</v>
+      <c r="C316" t="s">
+        <v>329</v>
+      </c>
+      <c r="D316" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="33"/>
+      <c r="B317" s="38"/>
+      <c r="C317" t="s">
+        <v>369</v>
+      </c>
+      <c r="D317" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="33"/>
       <c r="B318" s="38"/>
-      <c r="C318" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="33"/>
-      <c r="B319" s="38"/>
-      <c r="C319" t="s">
-        <v>340</v>
-      </c>
-      <c r="D319" t="s">
-        <v>341</v>
+    </row>
+    <row r="319" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="36"/>
+      <c r="B319" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C319" s="50" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="33"/>
       <c r="B320" s="38"/>
       <c r="C320" t="s">
-        <v>342</v>
-      </c>
-      <c r="D320" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="33"/>
       <c r="B321" s="38"/>
       <c r="C321" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="D321" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="33"/>
       <c r="B322" s="38"/>
       <c r="C322" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="D322" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="33"/>
       <c r="B323" s="38"/>
       <c r="C323" t="s">
-        <v>254</v>
+        <v>322</v>
+      </c>
+      <c r="D323" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="33"/>
       <c r="B324" s="38"/>
       <c r="C324" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="33"/>
       <c r="B325" s="38"/>
       <c r="C325" t="s">
-        <v>345</v>
-      </c>
-      <c r="D325" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="33"/>
       <c r="B326" s="38"/>
-    </row>
-    <row r="327" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="36" t="s">
+      <c r="C326" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="33"/>
+      <c r="B327" s="38"/>
+      <c r="C327" t="s">
+        <v>345</v>
+      </c>
+      <c r="D327" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="33"/>
+      <c r="B328" s="38"/>
+    </row>
+    <row r="329" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="33"/>
-      <c r="B328" s="38" t="s">
+    <row r="330" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="33"/>
+      <c r="B330" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="C328" s="38" t="s">
+      <c r="C330" s="38" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="33"/>
-      <c r="B329" s="38"/>
-      <c r="C329" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="33"/>
-      <c r="B330" s="38"/>
-      <c r="C330" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="33"/>
       <c r="B331" s="38"/>
-      <c r="C331" t="s">
-        <v>293</v>
+      <c r="C331" s="38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="33"/>
-      <c r="B332" s="33" t="s">
-        <v>34</v>
+      <c r="B332" s="38"/>
+      <c r="C332" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="33"/>
       <c r="B333" s="38"/>
+      <c r="C333" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="33"/>
-      <c r="B334" s="38"/>
-    </row>
-    <row r="335" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="39" t="s">
+      <c r="B334" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="33"/>
+      <c r="B335" s="38"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="33"/>
+      <c r="B336" s="38"/>
+    </row>
+    <row r="337" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B335" s="40" t="s">
+      <c r="B337" s="40" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="32"/>
-      <c r="B336" s="35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="32"/>
-      <c r="B337" s="35" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="32"/>
       <c r="B338" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="32"/>
       <c r="B339" s="35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="32"/>
       <c r="B340" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="32"/>
-      <c r="B341" s="35"/>
+      <c r="B341" s="35" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="32"/>
-      <c r="B342" s="35"/>
+      <c r="B342" s="35" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="32"/>
@@ -4199,16 +4220,24 @@
       <c r="B352" s="35"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="32"/>
+      <c r="B353" s="35"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="32"/>
+      <c r="B354" s="35"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
         <v>363</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B355" t="s">
         <v>364</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C355" t="s">
         <v>365</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D355" t="s">
         <v>366</v>
       </c>
     </row>

--- a/PPT/Clases.xlsx
+++ b/PPT/Clases.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="381">
   <si>
     <t>System</t>
   </si>
@@ -1146,13 +1146,34 @@
   </si>
   <si>
     <t>Bool</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Equals()</t>
+  </si>
+  <si>
+    <t>GetHashCode()</t>
+  </si>
+  <si>
+    <t>ToString()</t>
+  </si>
+  <si>
+    <t>ReadOnly</t>
+  </si>
+  <si>
+    <t>DataSource</t>
+  </si>
+  <si>
+    <t>cmb.DataSource = Enum.GetValues(typeof(enumerado));</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,6 +1183,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1307,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1359,6 +1388,9 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1639,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F355"/>
+  <dimension ref="A1:I365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D298" sqref="D298"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,1347 +1982,1348 @@
     <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>7</v>
+        <v>374</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>21</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="13" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>26</v>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" t="s">
-        <v>45</v>
+    </row>
+    <row r="52" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
-        <v>371</v>
-      </c>
-      <c r="D53" t="s">
-        <v>372</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" t="s">
-        <v>200</v>
+      <c r="C55" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="D57" t="s">
-        <v>46</v>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
-        <v>203</v>
+        <v>371</v>
       </c>
       <c r="D59" t="s">
-        <v>224</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" t="s">
-        <v>209</v>
-      </c>
       <c r="D63" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" t="s">
-        <v>220</v>
-      </c>
-      <c r="D71" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
+      <c r="C73" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>9</v>
+      <c r="B75" s="4"/>
+      <c r="C75" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="4" t="s">
-        <v>10</v>
+      <c r="B77" s="4"/>
+      <c r="C77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D77" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="4" t="s">
-        <v>15</v>
+      <c r="B78" s="4"/>
+      <c r="C78" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" t="s">
-        <v>83</v>
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" t="s">
-        <v>84</v>
+      <c r="B83" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" t="s">
-        <v>85</v>
+      <c r="B84" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="4" t="s">
-        <v>13</v>
+      <c r="B87" s="4"/>
+      <c r="C87" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="4" t="s">
-        <v>14</v>
+      <c r="B88" s="4"/>
+      <c r="C88" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" t="s">
-        <v>89</v>
+      <c r="B89" s="4"/>
+      <c r="C89" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="D90" t="s">
-        <v>262</v>
+      <c r="C90" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="4" t="s">
-        <v>16</v>
+      <c r="B91" s="4"/>
+      <c r="C91" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" t="s">
-        <v>88</v>
-      </c>
-      <c r="D93" t="s">
-        <v>87</v>
+      <c r="B93" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="D96" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" t="s">
-        <v>349</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="4" t="s">
-        <v>37</v>
+      <c r="B99" s="4"/>
+      <c r="C99" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
+      <c r="B101" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="44" t="s">
+    <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
+      <c r="B109" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C103" s="45" t="s">
+      <c r="C109" s="45" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="14"/>
-      <c r="C104" t="s">
-        <v>59</v>
-      </c>
-      <c r="D104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="14"/>
-      <c r="C105" t="s">
-        <v>61</v>
-      </c>
-      <c r="D105" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="14"/>
-      <c r="C106" t="s">
-        <v>63</v>
-      </c>
-      <c r="D106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
-      <c r="B107" s="14"/>
-      <c r="C107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D107" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
-      <c r="B109" s="14"/>
-      <c r="C109" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="D110" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>298</v>
+        <v>61</v>
+      </c>
+      <c r="D111" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="D113" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="14"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="14"/>
-    </row>
-    <row r="116" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
+      <c r="C115" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="14"/>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="14"/>
+      <c r="C117" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="14"/>
+      <c r="C118" t="s">
+        <v>69</v>
+      </c>
+      <c r="I118" s="52"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="14"/>
+      <c r="C119" t="s">
+        <v>228</v>
+      </c>
+      <c r="D119" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="14"/>
+      <c r="I120" s="51"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="14"/>
+    </row>
+    <row r="122" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="46"/>
-    </row>
-    <row r="117" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="23" t="s">
+      <c r="B122" s="46"/>
+    </row>
+    <row r="123" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
-      <c r="B118" s="25" t="s">
+    <row r="124" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="19"/>
+      <c r="B124" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C124" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
-      <c r="B119" s="24"/>
-      <c r="C119" t="s">
-        <v>92</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="24"/>
-      <c r="C120" t="s">
-        <v>94</v>
-      </c>
-      <c r="D120" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
-      <c r="B121" s="24"/>
-      <c r="C121" t="s">
-        <v>96</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="24"/>
-      <c r="C122" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="B123" s="24"/>
-      <c r="C123" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
-      <c r="B124" s="24"/>
-      <c r="C124" t="s">
-        <v>102</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="B125" s="24"/>
       <c r="C125" t="s">
-        <v>309</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="B126" s="24"/>
       <c r="C126" t="s">
-        <v>312</v>
-      </c>
-      <c r="D126" s="11"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D126" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
       <c r="B127" s="24"/>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="20"/>
       <c r="B128" s="24"/>
       <c r="C128" t="s">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>353</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="20"/>
       <c r="B129" s="24"/>
-      <c r="D129" s="11"/>
+      <c r="C129" t="s">
+        <v>100</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="20"/>
       <c r="B130" s="24"/>
-      <c r="C130" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130" s="11"/>
+      <c r="C130" t="s">
+        <v>102</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
       <c r="B131" s="24"/>
       <c r="C131" t="s">
-        <v>104</v>
-      </c>
-      <c r="D131" t="s">
-        <v>105</v>
+        <v>309</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="B132" s="24"/>
       <c r="C132" t="s">
-        <v>106</v>
-      </c>
-      <c r="D132" t="s">
-        <v>107</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D132" s="11"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="B133" s="24"/>
       <c r="C133" t="s">
-        <v>108</v>
-      </c>
-      <c r="D133" t="s">
-        <v>311</v>
+        <v>138</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="B134" s="24"/>
       <c r="C134" t="s">
-        <v>109</v>
-      </c>
-      <c r="D134" t="s">
-        <v>110</v>
+        <v>352</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="20"/>
       <c r="B135" s="24"/>
+      <c r="D135" s="11"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="B136" s="24"/>
+      <c r="C136" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="11"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="20"/>
       <c r="B137" s="24"/>
+      <c r="C137" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="20"/>
       <c r="B138" s="24"/>
-      <c r="C138" s="24" t="s">
-        <v>111</v>
+      <c r="C138" t="s">
+        <v>106</v>
+      </c>
+      <c r="D138" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="20"/>
       <c r="B139" s="24"/>
       <c r="C139" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="D139" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="B140" s="24"/>
       <c r="C140" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D140" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="B141" s="24"/>
-      <c r="C141" t="s">
-        <v>114</v>
-      </c>
-      <c r="D141" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="B142" s="24"/>
-      <c r="C142" t="s">
-        <v>115</v>
-      </c>
-      <c r="D142" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="B143" s="24"/>
-      <c r="C143" t="s">
-        <v>116</v>
-      </c>
-      <c r="D143" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="B144" s="24"/>
-      <c r="C144" t="s">
-        <v>117</v>
-      </c>
-      <c r="D144" t="s">
-        <v>123</v>
+      <c r="C144" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="20"/>
       <c r="B145" s="24"/>
       <c r="C145" t="s">
-        <v>118</v>
-      </c>
-      <c r="D145" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="B146" s="24"/>
-    </row>
-    <row r="147" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
-      <c r="B147" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>264</v>
+      <c r="C146" t="s">
+        <v>113</v>
+      </c>
+      <c r="D146" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="20"/>
+      <c r="B147" s="24"/>
+      <c r="C147" t="s">
+        <v>114</v>
+      </c>
+      <c r="D147" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="B148" s="24"/>
       <c r="C148" t="s">
-        <v>259</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>260</v>
+        <v>115</v>
+      </c>
+      <c r="D148" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149" s="24"/>
       <c r="C149" t="s">
-        <v>144</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>261</v>
+        <v>116</v>
+      </c>
+      <c r="D149" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
       <c r="B150" s="24"/>
       <c r="C150" t="s">
-        <v>354</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>355</v>
+        <v>117</v>
+      </c>
+      <c r="D150" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="B151" s="24"/>
       <c r="C151" t="s">
-        <v>356</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>357</v>
+        <v>118</v>
+      </c>
+      <c r="D151" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="24"/>
-      <c r="C152" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D152" s="11"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
-      <c r="B153" s="24"/>
-      <c r="C153" t="s">
-        <v>299</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>300</v>
+    </row>
+    <row r="153" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18"/>
+      <c r="B153" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="24"/>
-      <c r="D154" s="11"/>
+      <c r="C154" t="s">
+        <v>259</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="24"/>
-      <c r="D155" s="11"/>
+      <c r="C155" t="s">
+        <v>144</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
-      <c r="B156" s="24" t="s">
-        <v>149</v>
-      </c>
+      <c r="B156" s="24"/>
       <c r="C156" t="s">
-        <v>304</v>
-      </c>
-      <c r="D156" t="s">
-        <v>178</v>
+        <v>354</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
-      <c r="B157" s="24" t="s">
-        <v>150</v>
+      <c r="B157" s="24"/>
+      <c r="C157" t="s">
+        <v>356</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
-      <c r="B158" s="24" t="s">
-        <v>152</v>
-      </c>
+      <c r="B158" s="24"/>
+      <c r="C158" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D158" s="11"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
-      <c r="B159" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
-      <c r="B160" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="B159" s="24"/>
+      <c r="C159" t="s">
+        <v>299</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="20"/>
+      <c r="B160" s="24"/>
+      <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="B161" s="24"/>
-      <c r="C161" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="D161" s="11"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
-      <c r="B162" s="24"/>
+      <c r="B162" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="C162" t="s">
-        <v>192</v>
+        <v>304</v>
+      </c>
+      <c r="D162" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
-      <c r="B163" s="24"/>
-      <c r="C163" t="s">
-        <v>194</v>
-      </c>
-      <c r="D163" t="s">
-        <v>193</v>
+      <c r="B163" s="24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
-      <c r="B164" s="24"/>
-      <c r="C164" t="s">
-        <v>195</v>
-      </c>
-      <c r="D164" t="s">
-        <v>196</v>
+      <c r="B164" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="24" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
-      <c r="B166" s="24"/>
-      <c r="C166" t="s">
-        <v>360</v>
-      </c>
-      <c r="D166" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="21"/>
-      <c r="B167" s="27"/>
+      <c r="B165" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="18"/>
+      <c r="B166" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="20"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
-      <c r="B168" s="24" t="s">
-        <v>154</v>
+      <c r="B168" s="24"/>
+      <c r="C168" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
-      <c r="B169" s="24" t="s">
-        <v>155</v>
+      <c r="B169" s="24"/>
+      <c r="C169" t="s">
+        <v>194</v>
+      </c>
+      <c r="D169" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
-      <c r="B170" s="24" t="s">
-        <v>130</v>
+      <c r="B170" s="24"/>
+      <c r="C170" t="s">
+        <v>195</v>
+      </c>
+      <c r="D170" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
-      <c r="B171" s="24" t="s">
-        <v>156</v>
-      </c>
+      <c r="B171" s="24"/>
       <c r="C171" t="s">
-        <v>157</v>
+        <v>379</v>
+      </c>
+      <c r="D171" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
-      <c r="B172" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C172" t="s">
-        <v>181</v>
-      </c>
+      <c r="B172" s="24"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
-      <c r="B173" s="24" t="s">
-        <v>306</v>
+      <c r="B173" s="24"/>
+      <c r="C173" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="24"/>
+      <c r="C174" t="s">
+        <v>360</v>
+      </c>
+      <c r="D174" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
-      <c r="B175" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
-      <c r="B176" s="24"/>
-      <c r="C176" t="s">
-        <v>361</v>
-      </c>
+      <c r="B175" s="24"/>
+    </row>
+    <row r="176" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="21"/>
+      <c r="B176" s="27"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
-      <c r="B177" s="24"/>
-      <c r="C177" t="s">
-        <v>302</v>
-      </c>
-      <c r="D177" t="s">
-        <v>362</v>
+      <c r="B177" s="24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
-      <c r="B178" s="24"/>
+      <c r="B178" s="24" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
-      <c r="B179" s="24"/>
+      <c r="B179" s="24" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
-      <c r="B180" s="24"/>
+      <c r="B180" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C180" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="24" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="20"/>
-      <c r="B182" s="24"/>
-      <c r="C182" t="s">
-        <v>183</v>
+      <c r="B182" s="24" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="B183" s="24"/>
-      <c r="C183" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C184" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="18"/>
-      <c r="B185" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C185" s="26" t="s">
-        <v>21</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="20"/>
+      <c r="B185" s="24"/>
+      <c r="C185" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="24"/>
       <c r="C186" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="D186" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="24"/>
-      <c r="C187" t="s">
-        <v>128</v>
-      </c>
-      <c r="D187" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="24"/>
-      <c r="C188" t="s">
-        <v>130</v>
-      </c>
-      <c r="D188" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="B189" s="24"/>
-      <c r="C189" t="s">
-        <v>132</v>
-      </c>
-      <c r="D189" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
-      <c r="B190" s="24"/>
+      <c r="B190" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="C190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D190" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="B191" s="24"/>
       <c r="C191" t="s">
-        <v>136</v>
-      </c>
-      <c r="D191" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
       <c r="B192" s="24"/>
       <c r="C192" t="s">
-        <v>138</v>
-      </c>
-      <c r="D192" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
-      <c r="B193" s="24"/>
+      <c r="B193" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="C193" t="s">
-        <v>140</v>
-      </c>
-      <c r="D193" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
-      <c r="B194" s="24"/>
-      <c r="C194" t="s">
-        <v>142</v>
-      </c>
-      <c r="D194" t="s">
-        <v>143</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="18"/>
+      <c r="B194" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
       <c r="B195" s="24"/>
       <c r="C195" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D195" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="19"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D196" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="19"/>
-      <c r="B197" s="25"/>
-    </row>
-    <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="19"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="19"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D199" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="19"/>
-      <c r="B200" s="25"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="20"/>
+      <c r="B196" s="24"/>
+      <c r="C196" t="s">
+        <v>128</v>
+      </c>
+      <c r="D196" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="20"/>
+      <c r="B197" s="24"/>
+      <c r="C197" t="s">
+        <v>130</v>
+      </c>
+      <c r="D197" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="20"/>
+      <c r="B198" s="24"/>
+      <c r="C198" t="s">
+        <v>132</v>
+      </c>
+      <c r="D198" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="20"/>
+      <c r="B199" s="24"/>
+      <c r="C199" t="s">
+        <v>134</v>
+      </c>
+      <c r="D199" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="20"/>
+      <c r="B200" s="24"/>
+      <c r="C200" t="s">
+        <v>136</v>
+      </c>
+      <c r="D200" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="B201" s="24"/>
-    </row>
-    <row r="202" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="18"/>
-      <c r="B202" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>163</v>
+      <c r="C201" t="s">
+        <v>138</v>
+      </c>
+      <c r="D201" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="20"/>
+      <c r="B202" s="24"/>
+      <c r="C202" t="s">
+        <v>140</v>
+      </c>
+      <c r="D202" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
-      <c r="B203" s="24" t="s">
-        <v>164</v>
+      <c r="B203" s="24"/>
+      <c r="C203" t="s">
+        <v>142</v>
+      </c>
+      <c r="D203" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
-      <c r="B204" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
-      <c r="B205" s="24"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
-      <c r="B206" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C206" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
-      <c r="B207" s="24"/>
-      <c r="C207" t="s">
-        <v>304</v>
-      </c>
-      <c r="D207" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
-      <c r="B208" s="24"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
-      <c r="B209" s="24" t="s">
-        <v>167</v>
-      </c>
+      <c r="B204" s="24"/>
+      <c r="C204" t="s">
+        <v>144</v>
+      </c>
+      <c r="D204" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="19"/>
+      <c r="B205" s="25"/>
+      <c r="C205" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="19"/>
+      <c r="B206" s="25"/>
+    </row>
+    <row r="207" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="19"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="19"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="19"/>
+      <c r="B209" s="25"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
-      <c r="B210" s="24" t="s">
-        <v>168</v>
-      </c>
+      <c r="B210" s="24"/>
     </row>
     <row r="211" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="18"/>
       <c r="B211" s="26" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
-      <c r="B212" s="24"/>
-      <c r="C212" t="s">
-        <v>187</v>
+      <c r="B212" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
-      <c r="B213" s="24"/>
-      <c r="C213" t="s">
-        <v>188</v>
+      <c r="B213" s="24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
       <c r="B214" s="24"/>
-      <c r="C214" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="21"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="9" t="s">
-        <v>190</v>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="20"/>
+      <c r="B215" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C215" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="B216" s="24"/>
+      <c r="C216" t="s">
+        <v>304</v>
+      </c>
+      <c r="D216" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
@@ -3298,926 +3331,950 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
-      <c r="B218" s="24"/>
+      <c r="B218" s="24" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
       <c r="B219" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="18"/>
       <c r="B220" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C220" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="19"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="19"/>
-      <c r="B222" s="25"/>
-      <c r="C222" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D222" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="19"/>
-      <c r="B223" s="25"/>
-      <c r="C223" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="19"/>
-      <c r="B224" s="25"/>
-      <c r="C224" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="20"/>
+      <c r="B221" s="24"/>
+      <c r="C221" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="20"/>
+      <c r="B222" s="24"/>
+      <c r="C222" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="20"/>
+      <c r="B223" s="24"/>
+      <c r="C223" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="21"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="B225" s="24"/>
-      <c r="C225" s="24" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
       <c r="B226" s="24"/>
-      <c r="C226" t="s">
-        <v>271</v>
-      </c>
-      <c r="D226" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
       <c r="B227" s="24"/>
-      <c r="C227" t="s">
-        <v>273</v>
-      </c>
-      <c r="D227" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
-      <c r="B228" s="24"/>
-      <c r="C228" t="s">
-        <v>275</v>
-      </c>
-      <c r="D228" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
-      <c r="B229" s="24"/>
-      <c r="C229" t="s">
-        <v>277</v>
-      </c>
-      <c r="D229" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
-      <c r="B230" s="24"/>
-      <c r="C230" t="s">
-        <v>266</v>
-      </c>
-      <c r="D230" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
-      <c r="B231" s="24"/>
-      <c r="C231" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
-      <c r="B232" s="24"/>
-      <c r="C232" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
-      <c r="B233" s="24"/>
-      <c r="C233" t="s">
-        <v>281</v>
-      </c>
-      <c r="D233" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
-      <c r="B234" s="24"/>
-      <c r="C234" t="s">
-        <v>283</v>
-      </c>
-      <c r="D234" t="s">
-        <v>284</v>
-      </c>
+      <c r="B228" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="18"/>
+      <c r="B229" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C229" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="19"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="19"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="19"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="19"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="19"/>
+      <c r="B234" s="25"/>
+      <c r="C234" s="13"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="B235" s="24"/>
+      <c r="C235" s="24" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="B236" s="24"/>
-      <c r="C236" s="24" t="s">
-        <v>26</v>
+      <c r="C236" t="s">
+        <v>271</v>
+      </c>
+      <c r="D236" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
       <c r="B237" s="24"/>
       <c r="C237" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D237" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="21"/>
-      <c r="B238" s="27"/>
-      <c r="C238" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="20"/>
+      <c r="B238" s="24"/>
+      <c r="C238" t="s">
+        <v>275</v>
+      </c>
+      <c r="D238" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
-      <c r="B239" s="24" t="s">
-        <v>170</v>
+      <c r="B239" s="24"/>
+      <c r="C239" t="s">
+        <v>277</v>
+      </c>
+      <c r="D239" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
-      <c r="B240" s="24" t="s">
-        <v>171</v>
-      </c>
+      <c r="B240" s="24"/>
       <c r="C240" t="s">
-        <v>172</v>
+        <v>266</v>
+      </c>
+      <c r="D240" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="20"/>
-      <c r="B241" s="24" t="s">
-        <v>173</v>
-      </c>
+      <c r="B241" s="24"/>
       <c r="C241" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
-      <c r="B242" s="24" t="s">
-        <v>175</v>
+      <c r="B242" s="24"/>
+      <c r="C242" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="24"/>
+      <c r="C243" t="s">
+        <v>281</v>
+      </c>
+      <c r="D243" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="24"/>
-    </row>
-    <row r="245" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="C244" t="s">
+        <v>283</v>
+      </c>
+      <c r="D244" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="20"/>
+      <c r="B245" s="24"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
-      <c r="B246" s="24" t="s">
-        <v>176</v>
+      <c r="B246" s="24"/>
+      <c r="C246" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
-      <c r="B247" s="24" t="s">
+      <c r="B247" s="24"/>
+      <c r="C247" t="s">
+        <v>268</v>
+      </c>
+      <c r="D247" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="21"/>
+      <c r="B248" s="27"/>
+      <c r="C248" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="20"/>
+      <c r="B249" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="20"/>
+      <c r="B250" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C250" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="20"/>
+      <c r="B251" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C251" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="20"/>
+      <c r="B252" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="20"/>
+      <c r="B253" s="24"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="20"/>
+      <c r="B254" s="24"/>
+    </row>
+    <row r="255" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="20"/>
+      <c r="B256" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="20"/>
+      <c r="B257" s="24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="20"/>
-      <c r="B248" s="24"/>
-    </row>
-    <row r="249" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="47" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="20"/>
+      <c r="B258" s="24"/>
+    </row>
+    <row r="259" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B249" s="48"/>
-    </row>
-    <row r="250" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="31" t="s">
+      <c r="B259" s="48"/>
+    </row>
+    <row r="260" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="28"/>
-      <c r="B251" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C251" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="28"/>
-      <c r="B252" s="34"/>
-      <c r="C252" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="28"/>
-      <c r="B253" s="34"/>
-      <c r="C253" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D253" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="28"/>
-      <c r="B254" s="34"/>
-      <c r="C254" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D254" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="28"/>
-      <c r="B255" s="34"/>
-      <c r="C255" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="28"/>
-      <c r="B256" s="34"/>
-      <c r="C256" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="28"/>
-      <c r="B257" s="34"/>
-      <c r="C257" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="28"/>
-      <c r="B258" s="34"/>
-      <c r="C258" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="28"/>
-      <c r="B259" s="34"/>
-      <c r="C259" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="28"/>
-      <c r="B260" s="34"/>
-      <c r="C260" s="13" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="28"/>
-      <c r="B261" s="34"/>
-      <c r="C261" s="13" t="s">
-        <v>339</v>
+      <c r="B261" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="28"/>
       <c r="B262" s="34"/>
+      <c r="C262" s="12" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="28"/>
-      <c r="B263" s="34" t="s">
-        <v>235</v>
-      </c>
+      <c r="B263" s="34"/>
       <c r="C263" s="12" t="s">
-        <v>347</v>
+        <v>253</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="28"/>
       <c r="B264" s="34"/>
-      <c r="C264" s="13" t="s">
-        <v>254</v>
+      <c r="C264" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="28"/>
       <c r="B265" s="34"/>
       <c r="C265" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="28"/>
       <c r="B266" s="34"/>
       <c r="C266" s="13" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="28"/>
       <c r="B267" s="34"/>
+      <c r="C267" s="13" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="28"/>
       <c r="B268" s="34"/>
+      <c r="C268" s="13" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="28"/>
       <c r="B269" s="34"/>
+      <c r="C269" s="13" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="28"/>
-      <c r="B270" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C270" s="12" t="s">
-        <v>237</v>
+      <c r="B270" s="34"/>
+      <c r="C270" s="13" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="28"/>
       <c r="B271" s="34"/>
       <c r="C271" s="13" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="28"/>
       <c r="B272" s="34"/>
-      <c r="C272" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28"/>
-      <c r="B273" s="34"/>
-    </row>
-    <row r="274" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="28"/>
       <c r="B274" s="34"/>
-    </row>
-    <row r="275" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C274" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="28"/>
       <c r="B275" s="34"/>
-    </row>
-    <row r="276" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C275" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="28"/>
-      <c r="B276" s="34" t="s">
+      <c r="B276" s="34"/>
+      <c r="C276" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="28"/>
+      <c r="B277" s="34"/>
+    </row>
+    <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="28"/>
+      <c r="B278" s="34"/>
+    </row>
+    <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="28"/>
+      <c r="B279" s="34"/>
+    </row>
+    <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="28"/>
+      <c r="B280" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="28"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="28"/>
+      <c r="B282" s="34"/>
+      <c r="C282" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="28"/>
+      <c r="B283" s="34"/>
+    </row>
+    <row r="284" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="28"/>
+      <c r="B284" s="34"/>
+    </row>
+    <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="28"/>
+      <c r="B285" s="34"/>
+    </row>
+    <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="28"/>
+      <c r="B286" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C276" s="12" t="s">
+      <c r="C286" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="29"/>
-      <c r="B277" s="34"/>
-      <c r="C277" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="29"/>
+      <c r="B287" s="34"/>
+      <c r="C287" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="29"/>
-      <c r="B278" s="34"/>
-      <c r="C278" t="s">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="29"/>
+      <c r="B288" s="34"/>
+      <c r="C288" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="29"/>
-      <c r="B279" s="34"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="29"/>
-      <c r="B280" s="29" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="29"/>
+      <c r="B289" s="34"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="29"/>
+      <c r="B290" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="29"/>
-      <c r="B281" s="34"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="29"/>
-      <c r="B282" s="34"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="29"/>
-      <c r="B283" s="29" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="29"/>
+      <c r="B291" s="34"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="29"/>
+      <c r="B292" s="34"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="29"/>
+      <c r="B293" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="29"/>
-      <c r="B284" s="34"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="29"/>
-      <c r="B285" s="34"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="29"/>
-      <c r="B286" s="34"/>
-    </row>
-    <row r="287" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="41" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="29"/>
+      <c r="B294" s="34"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="29"/>
+      <c r="B295" s="34"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="29"/>
+      <c r="B296" s="34"/>
+    </row>
+    <row r="297" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B287" s="42"/>
-    </row>
-    <row r="288" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="37" t="s">
+      <c r="B297" s="42"/>
+    </row>
+    <row r="298" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="36"/>
-      <c r="B289" s="50" t="s">
+    <row r="299" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="36"/>
+      <c r="B299" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C289" s="50" t="s">
+      <c r="C299" s="50" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="33"/>
-      <c r="B290" s="38"/>
-      <c r="C290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="33"/>
-      <c r="B291" s="38"/>
-      <c r="C291" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="33"/>
-      <c r="B292" s="38"/>
-      <c r="C292" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="33"/>
-      <c r="B293" s="38"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="33"/>
-      <c r="B294" s="38"/>
-    </row>
-    <row r="295" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="36"/>
-      <c r="B295" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C295" s="50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="33"/>
-      <c r="B296" s="38"/>
-      <c r="C296" t="s">
-        <v>253</v>
-      </c>
-      <c r="D296" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="33"/>
-      <c r="B297" s="38"/>
-      <c r="C297" t="s">
-        <v>254</v>
-      </c>
-      <c r="D297" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="33"/>
-      <c r="B298" s="38"/>
-      <c r="C298" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="33"/>
-      <c r="B299" s="38"/>
-      <c r="C299" t="s">
-        <v>367</v>
-      </c>
-      <c r="D299" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="33"/>
       <c r="B300" s="38"/>
-    </row>
-    <row r="301" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="36"/>
-      <c r="B301" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C301" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="33"/>
+      <c r="B301" s="38"/>
+      <c r="C301" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="33"/>
       <c r="B302" s="38"/>
       <c r="C302" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="33"/>
       <c r="B303" s="38"/>
-      <c r="C303" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="33"/>
       <c r="B304" s="38"/>
-      <c r="C304" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="33"/>
-      <c r="B305" s="38"/>
-    </row>
-    <row r="306" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="36"/>
-      <c r="B306" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C306" s="50" t="s">
-        <v>239</v>
+    </row>
+    <row r="305" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="36"/>
+      <c r="B305" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C305" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="33"/>
+      <c r="B306" s="38"/>
+      <c r="C306" t="s">
+        <v>253</v>
+      </c>
+      <c r="D306" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="33"/>
       <c r="B307" s="38"/>
       <c r="C307" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="D307" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="33"/>
       <c r="B308" s="38"/>
       <c r="C308" t="s">
-        <v>258</v>
-      </c>
-      <c r="D308" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="33"/>
       <c r="B309" s="38"/>
       <c r="C309" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="D309" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="33"/>
       <c r="B310" s="38"/>
-      <c r="C310" t="s">
-        <v>320</v>
-      </c>
-      <c r="D310" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="33"/>
-      <c r="B311" s="38"/>
-      <c r="C311" t="s">
-        <v>322</v>
+    </row>
+    <row r="311" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="36"/>
+      <c r="B311" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C311" s="50" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="33"/>
       <c r="B312" s="38"/>
       <c r="C312" t="s">
-        <v>323</v>
-      </c>
-      <c r="D312" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="33"/>
       <c r="B313" s="38"/>
       <c r="C313" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="33"/>
       <c r="B314" s="38"/>
       <c r="C314" t="s">
-        <v>326</v>
-      </c>
-      <c r="D314" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="33"/>
       <c r="B315" s="38"/>
-      <c r="C315" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="33"/>
-      <c r="B316" s="38"/>
-      <c r="C316" t="s">
-        <v>329</v>
-      </c>
-      <c r="D316" t="s">
-        <v>330</v>
+    </row>
+    <row r="316" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="36"/>
+      <c r="B316" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C316" s="50" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="33"/>
       <c r="B317" s="38"/>
       <c r="C317" t="s">
-        <v>369</v>
-      </c>
-      <c r="D317" t="s">
-        <v>370</v>
+        <v>257</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="33"/>
       <c r="B318" s="38"/>
-    </row>
-    <row r="319" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="36"/>
-      <c r="B319" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C319" s="50" t="s">
-        <v>245</v>
+      <c r="C318" t="s">
+        <v>258</v>
+      </c>
+      <c r="D318" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="33"/>
+      <c r="B319" s="38"/>
+      <c r="C319" t="s">
+        <v>317</v>
+      </c>
+      <c r="D319" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="33"/>
       <c r="B320" s="38"/>
       <c r="C320" t="s">
-        <v>253</v>
+        <v>320</v>
+      </c>
+      <c r="D320" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="33"/>
       <c r="B321" s="38"/>
       <c r="C321" t="s">
-        <v>340</v>
-      </c>
-      <c r="D321" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="33"/>
       <c r="B322" s="38"/>
       <c r="C322" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="D322" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="33"/>
       <c r="B323" s="38"/>
       <c r="C323" t="s">
-        <v>322</v>
-      </c>
-      <c r="D323" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="33"/>
       <c r="B324" s="38"/>
       <c r="C324" t="s">
-        <v>344</v>
+        <v>326</v>
+      </c>
+      <c r="D324" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="33"/>
       <c r="B325" s="38"/>
       <c r="C325" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="33"/>
       <c r="B326" s="38"/>
       <c r="C326" t="s">
-        <v>339</v>
+        <v>329</v>
+      </c>
+      <c r="D326" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="33"/>
       <c r="B327" s="38"/>
       <c r="C327" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="D327" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="33"/>
       <c r="B328" s="38"/>
     </row>
-    <row r="329" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="36"/>
+      <c r="B329" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C329" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="33"/>
-      <c r="B330" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C330" s="38" t="s">
-        <v>291</v>
+      <c r="B330" s="38"/>
+      <c r="C330" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="33"/>
       <c r="B331" s="38"/>
-      <c r="C331" s="38" t="s">
-        <v>21</v>
+      <c r="C331" t="s">
+        <v>340</v>
+      </c>
+      <c r="D331" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="33"/>
       <c r="B332" s="38"/>
       <c r="C332" t="s">
-        <v>292</v>
+        <v>342</v>
+      </c>
+      <c r="D332" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="33"/>
       <c r="B333" s="38"/>
       <c r="C333" t="s">
-        <v>293</v>
+        <v>322</v>
+      </c>
+      <c r="D333" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="33"/>
-      <c r="B334" s="33" t="s">
-        <v>34</v>
+      <c r="B334" s="38"/>
+      <c r="C334" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="33"/>
       <c r="B335" s="38"/>
+      <c r="C335" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="33"/>
       <c r="B336" s="38"/>
-    </row>
-    <row r="337" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="39" t="s">
+      <c r="C336" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="33"/>
+      <c r="B337" s="38"/>
+      <c r="C337" t="s">
+        <v>345</v>
+      </c>
+      <c r="D337" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="33"/>
+      <c r="B338" s="38"/>
+    </row>
+    <row r="339" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="33"/>
+      <c r="B340" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C340" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="33"/>
+      <c r="B341" s="38"/>
+      <c r="C341" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="33"/>
+      <c r="B342" s="38"/>
+      <c r="C342" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="33"/>
+      <c r="B343" s="38"/>
+      <c r="C343" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="33"/>
+      <c r="B344" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="33"/>
+      <c r="B345" s="38"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="33"/>
+      <c r="B346" s="38"/>
+    </row>
+    <row r="347" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B337" s="40" t="s">
+      <c r="B347" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="32"/>
-      <c r="B338" s="35" t="s">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="32"/>
+      <c r="B348" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="32"/>
-      <c r="B339" s="35" t="s">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="32"/>
+      <c r="B349" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="32"/>
-      <c r="B340" s="35" t="s">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="32"/>
+      <c r="B350" s="35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="32"/>
-      <c r="B341" s="35" t="s">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="32"/>
+      <c r="B351" s="35" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="32"/>
-      <c r="B342" s="35" t="s">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="32"/>
+      <c r="B352" s="35" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="32"/>
-      <c r="B343" s="35"/>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="32"/>
-      <c r="B344" s="35"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="32"/>
-      <c r="B345" s="35"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="32"/>
-      <c r="B346" s="35"/>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="32"/>
-      <c r="B347" s="35"/>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="32"/>
-      <c r="B348" s="35"/>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="32"/>
-      <c r="B349" s="35"/>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="32"/>
-      <c r="B350" s="35"/>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="32"/>
-      <c r="B351" s="35"/>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="32"/>
-      <c r="B352" s="35"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="32"/>
@@ -4228,16 +4285,56 @@
       <c r="B354" s="35"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="32"/>
+      <c r="B355" s="35"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="32"/>
+      <c r="B356" s="35"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="32"/>
+      <c r="B357" s="35"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="32"/>
+      <c r="B358" s="35"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="32"/>
+      <c r="B359" s="35"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="32"/>
+      <c r="B360" s="35"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="32"/>
+      <c r="B361" s="35"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="32"/>
+      <c r="B362" s="35"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="32"/>
+      <c r="B363" s="35"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="32"/>
+      <c r="B364" s="35"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
         <v>363</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B365" t="s">
         <v>364</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C365" t="s">
         <v>365</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D365" t="s">
         <v>366</v>
       </c>
     </row>

--- a/PPT/Clases.xlsx
+++ b/PPT/Clases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="390">
   <si>
     <t>System</t>
   </si>
@@ -1167,6 +1167,33 @@
   </si>
   <si>
     <t>cmb.DataSource = Enum.GetValues(typeof(enumerado));</t>
+  </si>
+  <si>
+    <t>Guid</t>
+  </si>
+  <si>
+    <t>Initializes a new instance of the Guid structure.</t>
+  </si>
+  <si>
+    <t>public struct Guid : IComparable, IComparable&lt;Guid&gt;, IEquatable&lt;Guid&gt;, Iformattable</t>
+  </si>
+  <si>
+    <t>Inheritance: Object &gt; ValueType &gt; Guid</t>
+  </si>
+  <si>
+    <t>Guid.NewGuid()</t>
+  </si>
+  <si>
+    <t>NumericUpDown</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>DialogResult</t>
+  </si>
+  <si>
+    <t>DateTime.Compare(f1,f2)</t>
   </si>
 </sst>
 </file>
@@ -1671,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I365"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,741 +2388,747 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
+      <c r="C92" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" s="7" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="D96" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99" t="s">
-        <v>87</v>
+      <c r="B97" s="4"/>
+      <c r="D97" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="53"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
+      <c r="C100" t="s">
+        <v>385</v>
+      </c>
+      <c r="D100" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" t="s">
-        <v>349</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="4" t="s">
-        <v>37</v>
+      <c r="B105" s="4"/>
+      <c r="C105" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="B107" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="44" t="s">
+    <row r="115" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="B115" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C109" s="45" t="s">
+      <c r="C115" s="45" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="B110" s="14"/>
-      <c r="C110" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="14"/>
-      <c r="C111" t="s">
-        <v>61</v>
-      </c>
-      <c r="D111" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="14"/>
-      <c r="C112" t="s">
-        <v>63</v>
-      </c>
-      <c r="D112" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="14"/>
-      <c r="C113" t="s">
-        <v>65</v>
-      </c>
-      <c r="D113" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="14"/>
-      <c r="C115" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="D116" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
-        <v>298</v>
+        <v>61</v>
+      </c>
+      <c r="D117" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>69</v>
-      </c>
-      <c r="I118" s="52"/>
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="D119" t="s">
-        <v>229</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="14"/>
-      <c r="I120" s="51"/>
+      <c r="C120" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="14"/>
-    </row>
-    <row r="122" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="30" t="s">
+      <c r="C121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="14"/>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
+      <c r="B123" s="14"/>
+      <c r="C123" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="14"/>
+      <c r="C124" t="s">
+        <v>69</v>
+      </c>
+      <c r="I124" s="52"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
+      <c r="B125" s="14"/>
+      <c r="C125" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="14"/>
+      <c r="I126" s="51"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="14"/>
+    </row>
+    <row r="128" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B122" s="46"/>
-    </row>
-    <row r="123" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="23" t="s">
+      <c r="B128" s="46"/>
+    </row>
+    <row r="129" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
-      <c r="B124" s="25" t="s">
+    <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="19"/>
+      <c r="B130" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C130" s="25" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="B125" s="24"/>
-      <c r="C125" t="s">
-        <v>92</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
-      <c r="B126" s="24"/>
-      <c r="C126" t="s">
-        <v>94</v>
-      </c>
-      <c r="D126" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
-      <c r="B127" s="24"/>
-      <c r="C127" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
-      <c r="B128" s="24"/>
-      <c r="C128" t="s">
-        <v>99</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
-      <c r="B129" s="24"/>
-      <c r="C129" t="s">
-        <v>100</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
-      <c r="B130" s="24"/>
-      <c r="C130" t="s">
-        <v>102</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
       <c r="B131" s="24"/>
       <c r="C131" t="s">
-        <v>309</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>310</v>
+        <v>92</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="B132" s="24"/>
       <c r="C132" t="s">
-        <v>312</v>
-      </c>
-      <c r="D132" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="D132" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="B133" s="24"/>
       <c r="C133" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="B134" s="24"/>
       <c r="C134" t="s">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>353</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="20"/>
       <c r="B135" s="24"/>
-      <c r="D135" s="11"/>
+      <c r="C135" t="s">
+        <v>100</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="B136" s="24"/>
-      <c r="C136" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="11"/>
+      <c r="C136" t="s">
+        <v>102</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="20"/>
       <c r="B137" s="24"/>
       <c r="C137" t="s">
-        <v>104</v>
-      </c>
-      <c r="D137" t="s">
-        <v>105</v>
+        <v>309</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="20"/>
       <c r="B138" s="24"/>
       <c r="C138" t="s">
-        <v>106</v>
-      </c>
-      <c r="D138" t="s">
-        <v>107</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D138" s="11"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="20"/>
       <c r="B139" s="24"/>
       <c r="C139" t="s">
-        <v>108</v>
-      </c>
-      <c r="D139" t="s">
-        <v>311</v>
+        <v>138</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="B140" s="24"/>
       <c r="C140" t="s">
-        <v>109</v>
-      </c>
-      <c r="D140" t="s">
-        <v>110</v>
+        <v>352</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="B141" s="24"/>
+      <c r="D141" s="11"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="B142" s="24"/>
+      <c r="C142" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="11"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="B143" s="24"/>
+      <c r="C143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="B144" s="24"/>
-      <c r="C144" s="24" t="s">
-        <v>111</v>
+      <c r="C144" t="s">
+        <v>106</v>
+      </c>
+      <c r="D144" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="20"/>
       <c r="B145" s="24"/>
       <c r="C145" t="s">
-        <v>112</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="D145" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="B146" s="24"/>
       <c r="C146" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D146" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="20"/>
       <c r="B147" s="24"/>
-      <c r="C147" t="s">
-        <v>114</v>
-      </c>
-      <c r="D147" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="B148" s="24"/>
-      <c r="C148" t="s">
-        <v>115</v>
-      </c>
-      <c r="D148" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149" s="24"/>
-      <c r="C149" t="s">
-        <v>116</v>
-      </c>
-      <c r="D149" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
       <c r="B150" s="24"/>
-      <c r="C150" t="s">
-        <v>117</v>
-      </c>
-      <c r="D150" t="s">
-        <v>123</v>
+      <c r="C150" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="B151" s="24"/>
       <c r="C151" t="s">
-        <v>118</v>
-      </c>
-      <c r="D151" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="24"/>
-    </row>
-    <row r="153" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
-      <c r="B153" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>264</v>
+      <c r="C152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D152" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="20"/>
+      <c r="B153" s="24"/>
+      <c r="C153" t="s">
+        <v>114</v>
+      </c>
+      <c r="D153" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="24"/>
       <c r="C154" t="s">
-        <v>259</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>260</v>
+        <v>115</v>
+      </c>
+      <c r="D154" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="24"/>
       <c r="C155" t="s">
-        <v>144</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>261</v>
+        <v>116</v>
+      </c>
+      <c r="D155" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="24"/>
       <c r="C156" t="s">
-        <v>354</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>355</v>
+        <v>117</v>
+      </c>
+      <c r="D156" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="24"/>
       <c r="C157" t="s">
-        <v>356</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>357</v>
+        <v>118</v>
+      </c>
+      <c r="D157" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="24"/>
-      <c r="C158" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D158" s="11"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
-      <c r="B159" s="24"/>
-      <c r="C159" t="s">
-        <v>299</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>300</v>
+    </row>
+    <row r="159" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="18"/>
+      <c r="B159" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="24"/>
-      <c r="D160" s="11"/>
+      <c r="C160" t="s">
+        <v>259</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="B161" s="24"/>
-      <c r="D161" s="11"/>
+      <c r="C161" t="s">
+        <v>144</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
-      <c r="B162" s="24" t="s">
-        <v>149</v>
-      </c>
+      <c r="B162" s="24"/>
       <c r="C162" t="s">
-        <v>304</v>
-      </c>
-      <c r="D162" t="s">
-        <v>178</v>
+        <v>354</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
-      <c r="B163" s="24" t="s">
-        <v>150</v>
+      <c r="B163" s="24"/>
+      <c r="C163" t="s">
+        <v>356</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
-      <c r="B164" s="24" t="s">
-        <v>152</v>
-      </c>
+      <c r="B164" s="24"/>
+      <c r="C164" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D164" s="11"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
-      <c r="B165" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="18"/>
-      <c r="B166" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="B165" s="24"/>
+      <c r="C165" t="s">
+        <v>299</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="20"/>
+      <c r="B166" s="24"/>
+      <c r="D166" s="11"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="24"/>
-      <c r="C167" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="D167" s="11"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
-      <c r="B168" s="24"/>
+      <c r="B168" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="C168" t="s">
-        <v>192</v>
+        <v>304</v>
+      </c>
+      <c r="D168" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
-      <c r="B169" s="24"/>
-      <c r="C169" t="s">
-        <v>194</v>
-      </c>
-      <c r="D169" t="s">
-        <v>193</v>
+      <c r="B169" s="24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
-      <c r="B170" s="24"/>
-      <c r="C170" t="s">
-        <v>195</v>
-      </c>
-      <c r="D170" t="s">
-        <v>196</v>
+      <c r="B170" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
-      <c r="B171" s="24"/>
-      <c r="C171" t="s">
-        <v>379</v>
-      </c>
-      <c r="D171" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
-      <c r="B172" s="24"/>
+      <c r="B171" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="18"/>
+      <c r="B172" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="24"/>
-      <c r="C173" s="24" t="s">
-        <v>358</v>
+      <c r="C173" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="24"/>
       <c r="C174" t="s">
-        <v>360</v>
-      </c>
-      <c r="D174" t="s">
-        <v>359</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="24"/>
-    </row>
-    <row r="176" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="21"/>
-      <c r="B176" s="27"/>
+      <c r="C175" t="s">
+        <v>194</v>
+      </c>
+      <c r="D175" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="20"/>
+      <c r="B176" s="24"/>
+      <c r="C176" t="s">
+        <v>195</v>
+      </c>
+      <c r="D176" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
-      <c r="B177" s="24" t="s">
-        <v>154</v>
+      <c r="B177" s="24"/>
+      <c r="C177" t="s">
+        <v>379</v>
+      </c>
+      <c r="D177" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
-      <c r="B178" s="24" t="s">
-        <v>155</v>
-      </c>
+      <c r="B178" s="24"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
-      <c r="B179" s="24" t="s">
-        <v>130</v>
+      <c r="B179" s="24"/>
+      <c r="C179" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
-      <c r="B180" s="24" t="s">
-        <v>156</v>
-      </c>
+      <c r="B180" s="24"/>
       <c r="C180" t="s">
-        <v>157</v>
+        <v>360</v>
+      </c>
+      <c r="D180" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
-      <c r="B181" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C181" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
-      <c r="B182" s="24" t="s">
-        <v>306</v>
-      </c>
+      <c r="B181" s="24"/>
+    </row>
+    <row r="182" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="21"/>
+      <c r="B182" s="27"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
-      <c r="B183" s="24"/>
+      <c r="B183" s="24" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
-      <c r="B185" s="24"/>
-      <c r="C185" t="s">
-        <v>361</v>
+      <c r="B185" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
-      <c r="B186" s="24"/>
+      <c r="B186" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="C186" t="s">
-        <v>302</v>
-      </c>
-      <c r="D186" t="s">
-        <v>362</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
-      <c r="B187" s="24"/>
+      <c r="B187" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C187" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
-      <c r="B188" s="24"/>
+      <c r="B188" s="24" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
@@ -3104,278 +3137,274 @@
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="B190" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C190" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="B191" s="24"/>
       <c r="C191" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
       <c r="B192" s="24"/>
       <c r="C192" t="s">
-        <v>184</v>
+        <v>302</v>
+      </c>
+      <c r="D192" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
-      <c r="B193" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C193" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="18"/>
-      <c r="B194" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C194" s="26" t="s">
-        <v>21</v>
-      </c>
+      <c r="B193" s="24"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="20"/>
+      <c r="B194" s="24"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
       <c r="B195" s="24"/>
-      <c r="C195" t="s">
-        <v>126</v>
-      </c>
-      <c r="D195" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
-      <c r="B196" s="24"/>
+      <c r="B196" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="C196" t="s">
-        <v>128</v>
-      </c>
-      <c r="D196" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
       <c r="B197" s="24"/>
       <c r="C197" t="s">
-        <v>130</v>
-      </c>
-      <c r="D197" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="B198" s="24"/>
       <c r="C198" t="s">
-        <v>132</v>
-      </c>
-      <c r="D198" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
-      <c r="B199" s="24"/>
+      <c r="B199" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="C199" t="s">
-        <v>134</v>
-      </c>
-      <c r="D199" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
-      <c r="B200" s="24"/>
-      <c r="C200" t="s">
-        <v>136</v>
-      </c>
-      <c r="D200" t="s">
-        <v>137</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="18"/>
+      <c r="B200" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="B201" s="24"/>
       <c r="C201" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D201" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="B202" s="24"/>
       <c r="C202" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D202" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
       <c r="B203" s="24"/>
       <c r="C203" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D203" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="B204" s="24"/>
       <c r="C204" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D204" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="19"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D205" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="19"/>
-      <c r="B206" s="25"/>
-    </row>
-    <row r="207" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="19"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="19"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D208" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="19"/>
-      <c r="B209" s="25"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="20"/>
+      <c r="B205" s="24"/>
+      <c r="C205" t="s">
+        <v>134</v>
+      </c>
+      <c r="D205" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="20"/>
+      <c r="B206" s="24"/>
+      <c r="C206" t="s">
+        <v>136</v>
+      </c>
+      <c r="D206" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="20"/>
+      <c r="B207" s="24"/>
+      <c r="C207" t="s">
+        <v>138</v>
+      </c>
+      <c r="D207" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="20"/>
+      <c r="B208" s="24"/>
+      <c r="C208" t="s">
+        <v>140</v>
+      </c>
+      <c r="D208" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="20"/>
+      <c r="B209" s="24"/>
+      <c r="C209" t="s">
+        <v>142</v>
+      </c>
+      <c r="D209" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
       <c r="B210" s="24"/>
-    </row>
-    <row r="211" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="18"/>
-      <c r="B211" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
-      <c r="B212" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
-      <c r="B213" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="20"/>
-      <c r="B214" s="24"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
-      <c r="B215" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C215" t="s">
-        <v>179</v>
-      </c>
+      <c r="C210" t="s">
+        <v>144</v>
+      </c>
+      <c r="D210" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="19"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="19"/>
+      <c r="B212" s="25"/>
+    </row>
+    <row r="213" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="19"/>
+      <c r="B213" s="25"/>
+      <c r="C213" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="19"/>
+      <c r="B214" s="25"/>
+      <c r="C214" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="19"/>
+      <c r="B215" s="25"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="B216" s="24"/>
-      <c r="C216" t="s">
-        <v>304</v>
-      </c>
-      <c r="D216" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
-      <c r="B217" s="24"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
-      <c r="B218" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="20"/>
-      <c r="B219" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="18"/>
-      <c r="B220" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>186</v>
+    </row>
+    <row r="217" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="18"/>
+      <c r="B217" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="19"/>
+      <c r="B218" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="19"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="13"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="20"/>
+      <c r="B220" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="20"/>
-      <c r="B221" s="24"/>
-      <c r="C221" t="s">
-        <v>187</v>
+      <c r="B221" s="24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="20"/>
       <c r="B222" s="24"/>
-      <c r="C222" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="20"/>
-      <c r="B223" s="24"/>
+      <c r="B223" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="C223" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="21"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="9" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="20"/>
+      <c r="B224" s="24"/>
+      <c r="C224" t="s">
+        <v>304</v>
+      </c>
+      <c r="D224" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -3384,216 +3413,208 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
-      <c r="B226" s="24"/>
+      <c r="B226" s="24" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
-      <c r="B227" s="24"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
-      <c r="B228" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="18"/>
-      <c r="B229" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C229" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="19"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="19"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D231" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="19"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D232" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="19"/>
-      <c r="B233" s="25"/>
-      <c r="C233" s="13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="19"/>
-      <c r="B234" s="25"/>
-      <c r="C234" s="13"/>
+      <c r="B227" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="18"/>
+      <c r="B228" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="20"/>
+      <c r="B229" s="24"/>
+      <c r="C229" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="20"/>
+      <c r="B230" s="24"/>
+      <c r="C230" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="20"/>
+      <c r="B231" s="24"/>
+      <c r="C231" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="21"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="20"/>
+      <c r="B233" s="24"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="20"/>
+      <c r="B234" s="24"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="B235" s="24"/>
-      <c r="C235" s="24" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
-      <c r="B236" s="24"/>
-      <c r="C236" t="s">
-        <v>271</v>
-      </c>
-      <c r="D236" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="20"/>
-      <c r="B237" s="24"/>
-      <c r="C237" t="s">
-        <v>273</v>
-      </c>
-      <c r="D237" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
-      <c r="B238" s="24"/>
-      <c r="C238" t="s">
-        <v>275</v>
-      </c>
-      <c r="D238" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="20"/>
-      <c r="B239" s="24"/>
-      <c r="C239" t="s">
-        <v>277</v>
-      </c>
-      <c r="D239" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
-      <c r="B240" s="24"/>
-      <c r="C240" t="s">
-        <v>266</v>
-      </c>
-      <c r="D240" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
-      <c r="B241" s="24"/>
-      <c r="C241" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
-      <c r="B242" s="24"/>
-      <c r="C242" t="s">
-        <v>280</v>
-      </c>
+      <c r="B236" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="18"/>
+      <c r="B237" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C237" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="19"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="19"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="19"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="19"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="19"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="13"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="24"/>
-      <c r="C243" t="s">
-        <v>281</v>
-      </c>
-      <c r="D243" t="s">
-        <v>282</v>
+      <c r="C243" s="24" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="24"/>
       <c r="C244" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D244" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="24"/>
+      <c r="C245" t="s">
+        <v>273</v>
+      </c>
+      <c r="D245" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="B246" s="24"/>
-      <c r="C246" s="24" t="s">
-        <v>26</v>
+      <c r="C246" t="s">
+        <v>275</v>
+      </c>
+      <c r="D246" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="24"/>
       <c r="C247" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D247" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="21"/>
-      <c r="B248" s="27"/>
-      <c r="C248" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D248" s="9" t="s">
-        <v>270</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="20"/>
+      <c r="B248" s="24"/>
+      <c r="C248" t="s">
+        <v>266</v>
+      </c>
+      <c r="D248" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
-      <c r="B249" s="24" t="s">
-        <v>170</v>
+      <c r="B249" s="24"/>
+      <c r="C249" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
-      <c r="B250" s="24" t="s">
-        <v>171</v>
-      </c>
+      <c r="B250" s="24"/>
       <c r="C250" t="s">
-        <v>172</v>
+        <v>280</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
-      <c r="B251" s="24" t="s">
-        <v>173</v>
-      </c>
+      <c r="B251" s="24"/>
       <c r="C251" t="s">
-        <v>174</v>
+        <v>281</v>
+      </c>
+      <c r="D251" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
-      <c r="B252" s="24" t="s">
-        <v>175</v>
+      <c r="B252" s="24"/>
+      <c r="C252" t="s">
+        <v>283</v>
+      </c>
+      <c r="D252" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -3603,617 +3624,621 @@
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="B254" s="24"/>
-    </row>
-    <row r="255" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="20"/>
-      <c r="B256" s="24" t="s">
-        <v>176</v>
+      <c r="C254" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="20"/>
+      <c r="B255" s="24"/>
+      <c r="C255" t="s">
+        <v>268</v>
+      </c>
+      <c r="D255" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="21"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="24" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="20"/>
-      <c r="B258" s="24"/>
-    </row>
-    <row r="259" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="47" t="s">
+      <c r="B258" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C258" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="20"/>
+      <c r="B259" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C259" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="20"/>
+      <c r="B260" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="20"/>
+      <c r="B261" s="24"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="20"/>
+      <c r="B262" s="24"/>
+    </row>
+    <row r="263" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="20"/>
+      <c r="B264" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="20"/>
+      <c r="B265" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="20"/>
+      <c r="B266" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="20"/>
+      <c r="B267" s="24"/>
+    </row>
+    <row r="268" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B259" s="48"/>
-    </row>
-    <row r="260" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="31" t="s">
+      <c r="B268" s="48"/>
+    </row>
+    <row r="269" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="28"/>
-      <c r="B261" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C261" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="28"/>
-      <c r="B262" s="34"/>
-      <c r="C262" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="28"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="28"/>
-      <c r="B264" s="34"/>
-      <c r="C264" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="28"/>
-      <c r="B265" s="34"/>
-      <c r="C265" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="28"/>
-      <c r="B266" s="34"/>
-      <c r="C266" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="28"/>
-      <c r="B267" s="34"/>
-      <c r="C267" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="28"/>
-      <c r="B268" s="34"/>
-      <c r="C268" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="28"/>
-      <c r="B269" s="34"/>
-      <c r="C269" s="13" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="28"/>
-      <c r="B270" s="34"/>
-      <c r="C270" s="13" t="s">
-        <v>254</v>
+      <c r="B270" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="28"/>
       <c r="B271" s="34"/>
-      <c r="C271" s="13" t="s">
-        <v>339</v>
+      <c r="C271" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="28"/>
       <c r="B272" s="34"/>
+      <c r="C272" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28"/>
-      <c r="B273" s="34" t="s">
-        <v>235</v>
-      </c>
+      <c r="B273" s="34"/>
       <c r="C273" s="12" t="s">
-        <v>347</v>
+        <v>334</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="28"/>
       <c r="B274" s="34"/>
       <c r="C274" s="13" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
     </row>
     <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="28"/>
       <c r="B275" s="34"/>
       <c r="C275" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D275" s="12" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="28"/>
       <c r="B276" s="34"/>
       <c r="C276" s="13" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="28"/>
       <c r="B277" s="34"/>
+      <c r="C277" s="13" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="28"/>
       <c r="B278" s="34"/>
+      <c r="C278" s="13" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="28"/>
       <c r="B279" s="34"/>
+      <c r="C279" s="13" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="28"/>
-      <c r="B280" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C280" s="12" t="s">
-        <v>237</v>
+      <c r="B280" s="34"/>
+      <c r="C280" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="28"/>
       <c r="B281" s="34"/>
-      <c r="C281" s="13" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="28"/>
-      <c r="B282" s="34"/>
-      <c r="C282" s="13" t="s">
-        <v>256</v>
+      <c r="B282" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="28"/>
       <c r="B283" s="34"/>
+      <c r="C283" s="13" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="284" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="28"/>
       <c r="B284" s="34"/>
+      <c r="C284" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="28"/>
       <c r="B285" s="34"/>
+      <c r="C285" s="13" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="28"/>
-      <c r="B286" s="34" t="s">
+      <c r="B286" s="34"/>
+    </row>
+    <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="28"/>
+      <c r="B287" s="34"/>
+    </row>
+    <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="28"/>
+      <c r="B288" s="34"/>
+    </row>
+    <row r="289" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="28"/>
+      <c r="B289" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="28"/>
+      <c r="B290" s="34"/>
+      <c r="C290" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="28"/>
+      <c r="B291" s="34"/>
+      <c r="C291" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="28"/>
+      <c r="B292" s="34"/>
+    </row>
+    <row r="293" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="28"/>
+      <c r="B293" s="34"/>
+    </row>
+    <row r="294" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="28"/>
+      <c r="B294" s="34"/>
+    </row>
+    <row r="295" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="28"/>
+      <c r="B295" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C286" s="12" t="s">
+      <c r="C295" s="12" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="29"/>
-      <c r="B287" s="34"/>
-      <c r="C287" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="29"/>
-      <c r="B288" s="34"/>
-      <c r="C288" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="29"/>
-      <c r="B289" s="34"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="29"/>
-      <c r="B290" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="29"/>
-      <c r="B291" s="34"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="29"/>
-      <c r="B292" s="34"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="29"/>
-      <c r="B293" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="29"/>
-      <c r="B294" s="34"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="29"/>
-      <c r="B295" s="34"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="29"/>
       <c r="B296" s="34"/>
-    </row>
-    <row r="297" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="41" t="s">
+      <c r="C296" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="29"/>
+      <c r="B297" s="34"/>
+      <c r="C297" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="29"/>
+      <c r="B298" s="34"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="29"/>
+      <c r="B299" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="29"/>
+      <c r="B300" s="34"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="29"/>
+      <c r="B301" s="34"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="29"/>
+      <c r="B302" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="29"/>
+      <c r="B303" s="34"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="29"/>
+      <c r="B304" s="34"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="29"/>
+      <c r="B305" s="34"/>
+    </row>
+    <row r="306" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B297" s="42"/>
-    </row>
-    <row r="298" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="37" t="s">
+      <c r="B306" s="42"/>
+    </row>
+    <row r="307" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="36"/>
-      <c r="B299" s="50" t="s">
+    <row r="308" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="36"/>
+      <c r="B308" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C299" s="50" t="s">
+      <c r="C308" s="50" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="33"/>
-      <c r="B300" s="38"/>
-      <c r="C300" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="33"/>
-      <c r="B301" s="38"/>
-      <c r="C301" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="33"/>
-      <c r="B302" s="38"/>
-      <c r="C302" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="33"/>
-      <c r="B303" s="38"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="33"/>
-      <c r="B304" s="38"/>
-    </row>
-    <row r="305" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="36"/>
-      <c r="B305" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C305" s="50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="33"/>
-      <c r="B306" s="38"/>
-      <c r="C306" t="s">
-        <v>253</v>
-      </c>
-      <c r="D306" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="33"/>
-      <c r="B307" s="38"/>
-      <c r="C307" t="s">
-        <v>254</v>
-      </c>
-      <c r="D307" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="33"/>
-      <c r="B308" s="38"/>
-      <c r="C308" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="33"/>
       <c r="B309" s="38"/>
       <c r="C309" t="s">
-        <v>367</v>
-      </c>
-      <c r="D309" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="33"/>
       <c r="B310" s="38"/>
-    </row>
-    <row r="311" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="36"/>
-      <c r="B311" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C311" s="50" t="s">
-        <v>237</v>
+      <c r="C310" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="33"/>
+      <c r="B311" s="38"/>
+      <c r="C311" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="33"/>
       <c r="B312" s="38"/>
-      <c r="C312" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="33"/>
       <c r="B313" s="38"/>
-      <c r="C313" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="33"/>
-      <c r="B314" s="38"/>
-      <c r="C314" t="s">
-        <v>331</v>
+    </row>
+    <row r="314" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="36"/>
+      <c r="B314" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C314" s="50" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="33"/>
       <c r="B315" s="38"/>
-    </row>
-    <row r="316" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="36"/>
-      <c r="B316" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C316" s="50" t="s">
-        <v>239</v>
+      <c r="C315" t="s">
+        <v>253</v>
+      </c>
+      <c r="D315" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="33"/>
+      <c r="B316" s="38"/>
+      <c r="C316" t="s">
+        <v>254</v>
+      </c>
+      <c r="D316" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="33"/>
       <c r="B317" s="38"/>
       <c r="C317" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="33"/>
       <c r="B318" s="38"/>
       <c r="C318" t="s">
-        <v>258</v>
+        <v>367</v>
       </c>
       <c r="D318" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="33"/>
       <c r="B319" s="38"/>
-      <c r="C319" t="s">
-        <v>317</v>
-      </c>
-      <c r="D319" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="33"/>
-      <c r="B320" s="38"/>
-      <c r="C320" t="s">
-        <v>320</v>
-      </c>
-      <c r="D320" t="s">
-        <v>321</v>
+    </row>
+    <row r="320" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="36"/>
+      <c r="B320" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C320" s="50" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="33"/>
       <c r="B321" s="38"/>
       <c r="C321" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="33"/>
       <c r="B322" s="38"/>
       <c r="C322" t="s">
-        <v>323</v>
-      </c>
-      <c r="D322" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="33"/>
       <c r="B323" s="38"/>
       <c r="C323" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="33"/>
       <c r="B324" s="38"/>
-      <c r="C324" t="s">
-        <v>326</v>
-      </c>
-      <c r="D324" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="33"/>
-      <c r="B325" s="38"/>
-      <c r="C325" t="s">
-        <v>328</v>
+    </row>
+    <row r="325" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="36"/>
+      <c r="B325" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C325" s="50" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="33"/>
       <c r="B326" s="38"/>
       <c r="C326" t="s">
-        <v>329</v>
-      </c>
-      <c r="D326" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="33"/>
       <c r="B327" s="38"/>
       <c r="C327" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="D327" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="33"/>
       <c r="B328" s="38"/>
-    </row>
-    <row r="329" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="36"/>
-      <c r="B329" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C329" s="50" t="s">
-        <v>245</v>
+      <c r="C328" t="s">
+        <v>317</v>
+      </c>
+      <c r="D328" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="33"/>
+      <c r="B329" s="38"/>
+      <c r="C329" t="s">
+        <v>320</v>
+      </c>
+      <c r="D329" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="33"/>
       <c r="B330" s="38"/>
       <c r="C330" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="33"/>
       <c r="B331" s="38"/>
       <c r="C331" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D331" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="33"/>
       <c r="B332" s="38"/>
       <c r="C332" t="s">
-        <v>342</v>
-      </c>
-      <c r="D332" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="33"/>
       <c r="B333" s="38"/>
       <c r="C333" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D333" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="33"/>
       <c r="B334" s="38"/>
       <c r="C334" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="33"/>
       <c r="B335" s="38"/>
       <c r="C335" t="s">
-        <v>254</v>
+        <v>329</v>
+      </c>
+      <c r="D335" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="33"/>
       <c r="B336" s="38"/>
       <c r="C336" t="s">
-        <v>339</v>
+        <v>369</v>
+      </c>
+      <c r="D336" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="33"/>
       <c r="B337" s="38"/>
-      <c r="C337" t="s">
-        <v>345</v>
-      </c>
-      <c r="D337" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="33"/>
-      <c r="B338" s="38"/>
-    </row>
-    <row r="339" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="36"/>
+      <c r="B338" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C338" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="33"/>
+      <c r="B339" s="38"/>
+      <c r="C339" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="33"/>
-      <c r="B340" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C340" s="38" t="s">
-        <v>291</v>
+      <c r="B340" s="38"/>
+      <c r="C340" t="s">
+        <v>340</v>
+      </c>
+      <c r="D340" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="33"/>
       <c r="B341" s="38"/>
-      <c r="C341" s="38" t="s">
-        <v>21</v>
+      <c r="C341" t="s">
+        <v>342</v>
+      </c>
+      <c r="D341" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="33"/>
       <c r="B342" s="38"/>
       <c r="C342" t="s">
+        <v>322</v>
+      </c>
+      <c r="D342" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4221,120 +4246,183 @@
       <c r="A343" s="33"/>
       <c r="B343" s="38"/>
       <c r="C343" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="33"/>
-      <c r="B344" s="33" t="s">
-        <v>34</v>
+      <c r="B344" s="38"/>
+      <c r="C344" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="33"/>
       <c r="B345" s="38"/>
+      <c r="C345" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="33"/>
       <c r="B346" s="38"/>
-    </row>
-    <row r="347" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="39" t="s">
+      <c r="C346" t="s">
+        <v>345</v>
+      </c>
+      <c r="D346" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="33"/>
+      <c r="B347" s="38"/>
+    </row>
+    <row r="348" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="33"/>
+      <c r="B349" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C349" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="33"/>
+      <c r="B350" s="38"/>
+      <c r="C350" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="33"/>
+      <c r="B351" s="38"/>
+      <c r="C351" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="33"/>
+      <c r="B352" s="38"/>
+      <c r="C352" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="33"/>
+      <c r="B353" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="33"/>
+      <c r="B354" s="38"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="33"/>
+      <c r="B355" s="38"/>
+    </row>
+    <row r="356" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B347" s="40" t="s">
+      <c r="B356" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="32"/>
-      <c r="B348" s="35" t="s">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="32"/>
+      <c r="B357" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="32"/>
-      <c r="B349" s="35" t="s">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="32"/>
+      <c r="B358" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="32"/>
-      <c r="B350" s="35" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="32"/>
+      <c r="B359" s="35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="32"/>
-      <c r="B351" s="35" t="s">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="32"/>
+      <c r="B360" s="35" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="32"/>
-      <c r="B352" s="35" t="s">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="32"/>
+      <c r="B361" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="32"/>
-      <c r="B353" s="35"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="32"/>
-      <c r="B354" s="35"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="32"/>
-      <c r="B355" s="35"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="32"/>
-      <c r="B356" s="35"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="32"/>
-      <c r="B357" s="35"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="32"/>
-      <c r="B358" s="35"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="32"/>
-      <c r="B359" s="35"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="32"/>
-      <c r="B360" s="35"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="32"/>
-      <c r="B361" s="35"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="32"/>
       <c r="B362" s="35"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="32"/>
       <c r="B363" s="35"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="32"/>
       <c r="B364" s="35"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="32"/>
+      <c r="B365" s="35"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="32"/>
+      <c r="B366" s="35"/>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="32"/>
+      <c r="B367" s="35"/>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="32"/>
+      <c r="B368" s="35"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="32"/>
+      <c r="B369" s="35"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="32"/>
+      <c r="B370" s="35"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="32"/>
+      <c r="B371" s="35"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="32"/>
+      <c r="B372" s="35"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="32"/>
+      <c r="B373" s="35"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
         <v>363</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B374" t="s">
         <v>364</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C374" t="s">
         <v>365</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D374" t="s">
         <v>366</v>
       </c>
     </row>
